--- a/outputs-r202/train-g__UBA1179.xlsx
+++ b/outputs-r202/train-g__UBA1179.xlsx
@@ -9,6 +9,8 @@
     <sheet name="quadratic-svm-score5" sheetId="2" r:id="rId3"/>
     <sheet name="quadratic-svm-score4" sheetId="3" r:id="rId5"/>
     <sheet name="quadratic-svm-score3" sheetId="4" r:id="rId6"/>
+    <sheet name="quadratic-svm-score2" sheetId="5" r:id="rId7"/>
+    <sheet name="quadratic-svm-score1" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -16,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="378">
   <si>
     <t>Row</t>
   </si>
@@ -718,6 +720,438 @@
   </si>
   <si>
     <t>GB_GCA_902802285.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002309915.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002309915.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002309915.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002310015.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002310015.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002310015.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002310015.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002310015.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002310015.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002310015.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002310015.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002310015.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002310175.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002310175.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002310175.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002310175.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002310175.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002310175.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002340405.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002340405.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002340405.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002340405.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002340405.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003491575.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003491575.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012511195.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900321045.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902760705.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902765605.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902781935.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902793745.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902793745.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902793745.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902756375.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902756375.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902787675.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902789025.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902760965.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902760965.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902760965.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902760965.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902760965.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902763885.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902763885.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902763885.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902774275.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902774335.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902774335.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902774335.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902800825.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902800825.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902800825.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902762365.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902762365.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902779875.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902779875.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902779875.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902761545.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902761545.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902782245.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902798685.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902798685.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902798685.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902798685.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902798685.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902798685.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902799685.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902799685.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902802285.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902802285.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902802285.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902802285.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002309915.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002309915.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002309915.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002309915.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002310015.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002310015.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002310015.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002310015.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002310015.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002310175.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002310175.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002310175.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002310175.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002310175.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002310175.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002310175.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002340405.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002340405.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002340405.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003491575.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003491575.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003491575.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012511195.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900318995.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900321045.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902760705.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900319225.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900319225.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902756375.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902787675.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902789025.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902760965.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902760965.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902760965.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902760965.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902760965.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902763885.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902763885.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902763885.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902763885.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902763885.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902763885.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902774275.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902774275.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902774335.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902774335.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902800825.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902800825.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902762365.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902762365.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902762365.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902779875.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902779875.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902779875.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902761545.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902761545.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902782245.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902782245.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902782245.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902782245.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902798685.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902798685.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902799685.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902799685.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902799685.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902799685.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902799685.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902799685.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902802285.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902802285.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902802285.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902802285.1_7.fasta</t>
   </si>
 </sst>
 </file>
@@ -738,7 +1172,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -752,11 +1186,15 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -764,6 +1202,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13120,4 +13562,8238 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R73"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.7109375" customWidth="true"/>
+    <col min="2" max="2" width="23.140625" customWidth="true"/>
+    <col min="3" max="3" width="23.140625" customWidth="true"/>
+    <col min="4" max="4" width="23.140625" customWidth="true"/>
+    <col min="5" max="5" width="23.140625" customWidth="true"/>
+    <col min="6" max="6" width="23.140625" customWidth="true"/>
+    <col min="7" max="7" width="23.140625" customWidth="true"/>
+    <col min="8" max="8" width="23.140625" customWidth="true"/>
+    <col min="9" max="9" width="23.140625" customWidth="true"/>
+    <col min="10" max="10" width="23.140625" customWidth="true"/>
+    <col min="11" max="11" width="23.140625" customWidth="true"/>
+    <col min="12" max="12" width="23.140625" customWidth="true"/>
+    <col min="13" max="13" width="23.140625" customWidth="true"/>
+    <col min="14" max="14" width="23.140625" customWidth="true"/>
+    <col min="15" max="15" width="23.140625" customWidth="true"/>
+    <col min="16" max="16" width="23.140625" customWidth="true"/>
+    <col min="17" max="17" width="10.28515625" customWidth="true"/>
+    <col min="18" max="18" width="6.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2">
+        <v>0.99642420914050533</v>
+      </c>
+      <c r="C2">
+        <v>2.2200584093355319e-14</v>
+      </c>
+      <c r="D2">
+        <v>2.2200584093355319e-14</v>
+      </c>
+      <c r="E2">
+        <v>2.2200584093355319e-14</v>
+      </c>
+      <c r="F2">
+        <v>2.2200584093355319e-14</v>
+      </c>
+      <c r="G2">
+        <v>2.2200584093355319e-14</v>
+      </c>
+      <c r="H2">
+        <v>2.2200584093355319e-14</v>
+      </c>
+      <c r="I2">
+        <v>2.899374908012657e-06</v>
+      </c>
+      <c r="J2">
+        <v>9.7922471670059915e-08</v>
+      </c>
+      <c r="K2">
+        <v>2.2200584093355319e-14</v>
+      </c>
+      <c r="L2">
+        <v>2.2200584093355319e-14</v>
+      </c>
+      <c r="M2">
+        <v>0.0035727935618708635</v>
+      </c>
+      <c r="N2">
+        <v>2.2200584093355319e-14</v>
+      </c>
+      <c r="O2">
+        <v>2.2200584093355319e-14</v>
+      </c>
+      <c r="P2">
+        <v>2.2200584093355319e-14</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3">
+        <v>0.99908357029085149</v>
+      </c>
+      <c r="C3">
+        <v>2.2203107563154631e-14</v>
+      </c>
+      <c r="D3">
+        <v>2.2203107563154631e-14</v>
+      </c>
+      <c r="E3">
+        <v>2.2203107563154631e-14</v>
+      </c>
+      <c r="F3">
+        <v>2.2203107563154631e-14</v>
+      </c>
+      <c r="G3">
+        <v>2.2203107563154631e-14</v>
+      </c>
+      <c r="H3">
+        <v>2.2203107563154631e-14</v>
+      </c>
+      <c r="I3">
+        <v>4.4614443462593637e-11</v>
+      </c>
+      <c r="J3">
+        <v>1.3429877576832776e-06</v>
+      </c>
+      <c r="K3">
+        <v>2.2203107563154631e-14</v>
+      </c>
+      <c r="L3">
+        <v>2.2203107563154631e-14</v>
+      </c>
+      <c r="M3">
+        <v>0.0009150866765319694</v>
+      </c>
+      <c r="N3">
+        <v>2.2203107563154631e-14</v>
+      </c>
+      <c r="O3">
+        <v>2.2203107563154631e-14</v>
+      </c>
+      <c r="P3">
+        <v>2.2203107563154631e-14</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B4">
+        <v>0.99697012987993727</v>
+      </c>
+      <c r="C4">
+        <v>2.220063100845615e-14</v>
+      </c>
+      <c r="D4">
+        <v>2.220063100845615e-14</v>
+      </c>
+      <c r="E4">
+        <v>2.220063100845615e-14</v>
+      </c>
+      <c r="F4">
+        <v>2.220063100845615e-14</v>
+      </c>
+      <c r="G4">
+        <v>2.220063100845615e-14</v>
+      </c>
+      <c r="H4">
+        <v>2.220063100845615e-14</v>
+      </c>
+      <c r="I4">
+        <v>3.6401922302317385e-11</v>
+      </c>
+      <c r="J4">
+        <v>0.00023760886302482835</v>
+      </c>
+      <c r="K4">
+        <v>2.220063100845615e-14</v>
+      </c>
+      <c r="L4">
+        <v>2.220063100845615e-14</v>
+      </c>
+      <c r="M4">
+        <v>0.0027922612203917932</v>
+      </c>
+      <c r="N4">
+        <v>2.220063100845615e-14</v>
+      </c>
+      <c r="O4">
+        <v>2.220063100845615e-14</v>
+      </c>
+      <c r="P4">
+        <v>2.220063100845615e-14</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B5">
+        <v>2.2203143076126297e-14</v>
+      </c>
+      <c r="C5">
+        <v>0.99910768869724831</v>
+      </c>
+      <c r="D5">
+        <v>2.2203143076126297e-14</v>
+      </c>
+      <c r="E5">
+        <v>2.2203143076126297e-14</v>
+      </c>
+      <c r="F5">
+        <v>2.2203143076126297e-14</v>
+      </c>
+      <c r="G5">
+        <v>2.2203143076126297e-14</v>
+      </c>
+      <c r="H5">
+        <v>2.2203143076126297e-14</v>
+      </c>
+      <c r="I5">
+        <v>0.00012830392298633839</v>
+      </c>
+      <c r="J5">
+        <v>0.00075960567792174034</v>
+      </c>
+      <c r="K5">
+        <v>2.2203143076126297e-14</v>
+      </c>
+      <c r="L5">
+        <v>2.2203143076126297e-14</v>
+      </c>
+      <c r="M5">
+        <v>4.4017015993314458e-06</v>
+      </c>
+      <c r="N5">
+        <v>2.2203143076126297e-14</v>
+      </c>
+      <c r="O5">
+        <v>2.2203143076126297e-14</v>
+      </c>
+      <c r="P5">
+        <v>2.2203143076126297e-14</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B6">
+        <v>2.2199666780241605e-14</v>
+      </c>
+      <c r="C6">
+        <v>0.97656149790325053</v>
+      </c>
+      <c r="D6">
+        <v>2.2199666780241605e-14</v>
+      </c>
+      <c r="E6">
+        <v>2.2199666780241605e-14</v>
+      </c>
+      <c r="F6">
+        <v>2.2199666780241605e-14</v>
+      </c>
+      <c r="G6">
+        <v>2.2199666780241605e-14</v>
+      </c>
+      <c r="H6">
+        <v>2.2199666780241605e-14</v>
+      </c>
+      <c r="I6">
+        <v>0.02317064641992924</v>
+      </c>
+      <c r="J6">
+        <v>0.00012250306414587754</v>
+      </c>
+      <c r="K6">
+        <v>2.2199666780241605e-14</v>
+      </c>
+      <c r="L6">
+        <v>2.2199666780241605e-14</v>
+      </c>
+      <c r="M6">
+        <v>0.00014535261243015708</v>
+      </c>
+      <c r="N6">
+        <v>2.2199666780241605e-14</v>
+      </c>
+      <c r="O6">
+        <v>2.2199666780241605e-14</v>
+      </c>
+      <c r="P6">
+        <v>2.2199666780241605e-14</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B7">
+        <v>2.2197770420900283e-14</v>
+      </c>
+      <c r="C7">
+        <v>0.96279111632484038</v>
+      </c>
+      <c r="D7">
+        <v>2.2197770420900283e-14</v>
+      </c>
+      <c r="E7">
+        <v>2.2197770420900283e-14</v>
+      </c>
+      <c r="F7">
+        <v>2.2197770420900283e-14</v>
+      </c>
+      <c r="G7">
+        <v>2.2197770420900283e-14</v>
+      </c>
+      <c r="H7">
+        <v>2.2197770420900283e-14</v>
+      </c>
+      <c r="I7">
+        <v>0.0013446692144040962</v>
+      </c>
+      <c r="J7">
+        <v>0.035857727665475903</v>
+      </c>
+      <c r="K7">
+        <v>2.2197770420900283e-14</v>
+      </c>
+      <c r="L7">
+        <v>2.2197770420900283e-14</v>
+      </c>
+      <c r="M7">
+        <v>6.4867950354834027e-06</v>
+      </c>
+      <c r="N7">
+        <v>2.2197770420900283e-14</v>
+      </c>
+      <c r="O7">
+        <v>2.2197770420900283e-14</v>
+      </c>
+      <c r="P7">
+        <v>2.2197770420900283e-14</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B8">
+        <v>2.2200774181061541e-14</v>
+      </c>
+      <c r="C8">
+        <v>0.99682576405791345</v>
+      </c>
+      <c r="D8">
+        <v>2.2200774181061541e-14</v>
+      </c>
+      <c r="E8">
+        <v>2.2200774181061541e-14</v>
+      </c>
+      <c r="F8">
+        <v>2.2200774181061541e-14</v>
+      </c>
+      <c r="G8">
+        <v>2.2200774181061541e-14</v>
+      </c>
+      <c r="H8">
+        <v>2.2200774181061541e-14</v>
+      </c>
+      <c r="I8">
+        <v>0.00072837661796547565</v>
+      </c>
+      <c r="J8">
+        <v>0.002412450658566712</v>
+      </c>
+      <c r="K8">
+        <v>2.2200774181061541e-14</v>
+      </c>
+      <c r="L8">
+        <v>2.2200774181061541e-14</v>
+      </c>
+      <c r="M8">
+        <v>3.3408665310108068e-05</v>
+      </c>
+      <c r="N8">
+        <v>2.2200774181061541e-14</v>
+      </c>
+      <c r="O8">
+        <v>2.2200774181061541e-14</v>
+      </c>
+      <c r="P8">
+        <v>2.2200774181061541e-14</v>
+      </c>
+      <c r="Q8">
+        <v>2</v>
+      </c>
+      <c r="R8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B9">
+        <v>2.2200621491317476e-14</v>
+      </c>
+      <c r="C9">
+        <v>0.9970443220586227</v>
+      </c>
+      <c r="D9">
+        <v>2.2200621491317476e-14</v>
+      </c>
+      <c r="E9">
+        <v>2.2200621491317476e-14</v>
+      </c>
+      <c r="F9">
+        <v>2.2200621491317476e-14</v>
+      </c>
+      <c r="G9">
+        <v>2.2200621491317476e-14</v>
+      </c>
+      <c r="H9">
+        <v>2.2200621491317476e-14</v>
+      </c>
+      <c r="I9">
+        <v>0.00020464845494396004</v>
+      </c>
+      <c r="J9">
+        <v>0.0027090647173121586</v>
+      </c>
+      <c r="K9">
+        <v>2.2200621491317476e-14</v>
+      </c>
+      <c r="L9">
+        <v>2.2200621491317476e-14</v>
+      </c>
+      <c r="M9">
+        <v>4.1964768877035221e-05</v>
+      </c>
+      <c r="N9">
+        <v>2.2200621491317476e-14</v>
+      </c>
+      <c r="O9">
+        <v>2.2200621491317476e-14</v>
+      </c>
+      <c r="P9">
+        <v>2.2200621491317476e-14</v>
+      </c>
+      <c r="Q9">
+        <v>2</v>
+      </c>
+      <c r="R9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B10">
+        <v>2.2198523946372545e-14</v>
+      </c>
+      <c r="C10">
+        <v>0.96727701573179792</v>
+      </c>
+      <c r="D10">
+        <v>2.2198523946372545e-14</v>
+      </c>
+      <c r="E10">
+        <v>2.2198523946372545e-14</v>
+      </c>
+      <c r="F10">
+        <v>2.2198523946372545e-14</v>
+      </c>
+      <c r="G10">
+        <v>2.2198523946372545e-14</v>
+      </c>
+      <c r="H10">
+        <v>2.2198523946372545e-14</v>
+      </c>
+      <c r="I10">
+        <v>0.032248836607851057</v>
+      </c>
+      <c r="J10">
+        <v>0.00045485710111725376</v>
+      </c>
+      <c r="K10">
+        <v>2.2198523946372545e-14</v>
+      </c>
+      <c r="L10">
+        <v>2.2198523946372545e-14</v>
+      </c>
+      <c r="M10">
+        <v>1.929055898956207e-05</v>
+      </c>
+      <c r="N10">
+        <v>2.2198523946372545e-14</v>
+      </c>
+      <c r="O10">
+        <v>2.2198523946372545e-14</v>
+      </c>
+      <c r="P10">
+        <v>2.2198523946372545e-14</v>
+      </c>
+      <c r="Q10">
+        <v>2</v>
+      </c>
+      <c r="R10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B11">
+        <v>2.2201869611432021e-14</v>
+      </c>
+      <c r="C11">
+        <v>0.99824064114398192</v>
+      </c>
+      <c r="D11">
+        <v>2.2201869611432021e-14</v>
+      </c>
+      <c r="E11">
+        <v>2.2201869611432021e-14</v>
+      </c>
+      <c r="F11">
+        <v>2.2201869611432021e-14</v>
+      </c>
+      <c r="G11">
+        <v>2.2201869611432021e-14</v>
+      </c>
+      <c r="H11">
+        <v>2.2201869611432021e-14</v>
+      </c>
+      <c r="I11">
+        <v>0.00057530043545331658</v>
+      </c>
+      <c r="J11">
+        <v>0.0011733197307656751</v>
+      </c>
+      <c r="K11">
+        <v>2.2201869611432021e-14</v>
+      </c>
+      <c r="L11">
+        <v>2.2201869611432021e-14</v>
+      </c>
+      <c r="M11">
+        <v>1.0738689554983577e-05</v>
+      </c>
+      <c r="N11">
+        <v>2.2201869611432021e-14</v>
+      </c>
+      <c r="O11">
+        <v>2.2201869611432021e-14</v>
+      </c>
+      <c r="P11">
+        <v>2.2201869611432021e-14</v>
+      </c>
+      <c r="Q11">
+        <v>2</v>
+      </c>
+      <c r="R11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B12">
+        <v>2.2200643478887877e-14</v>
+      </c>
+      <c r="C12">
+        <v>0.99545220333579976</v>
+      </c>
+      <c r="D12">
+        <v>2.2200643478887877e-14</v>
+      </c>
+      <c r="E12">
+        <v>2.2200643478887877e-14</v>
+      </c>
+      <c r="F12">
+        <v>2.2200643478887877e-14</v>
+      </c>
+      <c r="G12">
+        <v>2.2200643478887877e-14</v>
+      </c>
+      <c r="H12">
+        <v>2.2200643478887877e-14</v>
+      </c>
+      <c r="I12">
+        <v>6.4917017954988843e-05</v>
+      </c>
+      <c r="J12">
+        <v>0.0044722893843096388</v>
+      </c>
+      <c r="K12">
+        <v>2.2200643478887877e-14</v>
+      </c>
+      <c r="L12">
+        <v>2.2200643478887877e-14</v>
+      </c>
+      <c r="M12">
+        <v>1.0590261691627161e-05</v>
+      </c>
+      <c r="N12">
+        <v>2.2200643478887877e-14</v>
+      </c>
+      <c r="O12">
+        <v>2.2200643478887877e-14</v>
+      </c>
+      <c r="P12">
+        <v>2.2200643478887877e-14</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="R12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B13">
+        <v>2.2200748188810352e-14</v>
+      </c>
+      <c r="C13">
+        <v>0.99180980960699738</v>
+      </c>
+      <c r="D13">
+        <v>2.2200748188810352e-14</v>
+      </c>
+      <c r="E13">
+        <v>2.2200748188810352e-14</v>
+      </c>
+      <c r="F13">
+        <v>2.2200748188810352e-14</v>
+      </c>
+      <c r="G13">
+        <v>2.2200748188810352e-14</v>
+      </c>
+      <c r="H13">
+        <v>2.2200748188810352e-14</v>
+      </c>
+      <c r="I13">
+        <v>0.00017963226175781284</v>
+      </c>
+      <c r="J13">
+        <v>0.0079915293812979297</v>
+      </c>
+      <c r="K13">
+        <v>2.2200748188810352e-14</v>
+      </c>
+      <c r="L13">
+        <v>2.2200748188810352e-14</v>
+      </c>
+      <c r="M13">
+        <v>1.9028749702708593e-05</v>
+      </c>
+      <c r="N13">
+        <v>2.2200748188810352e-14</v>
+      </c>
+      <c r="O13">
+        <v>2.2200748188810352e-14</v>
+      </c>
+      <c r="P13">
+        <v>2.2200748188810352e-14</v>
+      </c>
+      <c r="Q13">
+        <v>2</v>
+      </c>
+      <c r="R13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B14">
+        <v>2.2203531163918813e-14</v>
+      </c>
+      <c r="C14">
+        <v>2.2203531163918813e-14</v>
+      </c>
+      <c r="D14">
+        <v>0.99937103690476803</v>
+      </c>
+      <c r="E14">
+        <v>2.2203531163918813e-14</v>
+      </c>
+      <c r="F14">
+        <v>2.2203531163918813e-14</v>
+      </c>
+      <c r="G14">
+        <v>2.2203531163918813e-14</v>
+      </c>
+      <c r="H14">
+        <v>2.2203531163918813e-14</v>
+      </c>
+      <c r="I14">
+        <v>1.2925137737877377e-07</v>
+      </c>
+      <c r="J14">
+        <v>8.3711920861838929e-05</v>
+      </c>
+      <c r="K14">
+        <v>2.2203531163918813e-14</v>
+      </c>
+      <c r="L14">
+        <v>2.2203531163918813e-14</v>
+      </c>
+      <c r="M14">
+        <v>0.00054512192274852145</v>
+      </c>
+      <c r="N14">
+        <v>2.2203531163918813e-14</v>
+      </c>
+      <c r="O14">
+        <v>2.2203531163918813e-14</v>
+      </c>
+      <c r="P14">
+        <v>2.2203531163918813e-14</v>
+      </c>
+      <c r="Q14">
+        <v>3</v>
+      </c>
+      <c r="R14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B15">
+        <v>2.2204182610106883e-14</v>
+      </c>
+      <c r="C15">
+        <v>2.2204182610106883e-14</v>
+      </c>
+      <c r="D15">
+        <v>0.99981217549293266</v>
+      </c>
+      <c r="E15">
+        <v>2.2204182610106883e-14</v>
+      </c>
+      <c r="F15">
+        <v>2.2204182610106883e-14</v>
+      </c>
+      <c r="G15">
+        <v>2.2204182610106883e-14</v>
+      </c>
+      <c r="H15">
+        <v>2.2204182610106883e-14</v>
+      </c>
+      <c r="I15">
+        <v>0.00012044358058025252</v>
+      </c>
+      <c r="J15">
+        <v>6.5269337645745075e-08</v>
+      </c>
+      <c r="K15">
+        <v>2.2204182610106883e-14</v>
+      </c>
+      <c r="L15">
+        <v>2.2204182610106883e-14</v>
+      </c>
+      <c r="M15">
+        <v>6.7315656905178218e-05</v>
+      </c>
+      <c r="N15">
+        <v>2.2204182610106883e-14</v>
+      </c>
+      <c r="O15">
+        <v>2.2204182610106883e-14</v>
+      </c>
+      <c r="P15">
+        <v>2.2204182610106883e-14</v>
+      </c>
+      <c r="Q15">
+        <v>3</v>
+      </c>
+      <c r="R15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B16">
+        <v>2.220427101975634e-14</v>
+      </c>
+      <c r="C16">
+        <v>2.220427101975634e-14</v>
+      </c>
+      <c r="D16">
+        <v>0.99987195532978501</v>
+      </c>
+      <c r="E16">
+        <v>2.220427101975634e-14</v>
+      </c>
+      <c r="F16">
+        <v>2.220427101975634e-14</v>
+      </c>
+      <c r="G16">
+        <v>2.220427101975634e-14</v>
+      </c>
+      <c r="H16">
+        <v>2.220427101975634e-14</v>
+      </c>
+      <c r="I16">
+        <v>1.2481827134383104e-05</v>
+      </c>
+      <c r="J16">
+        <v>1.5406746667303687e-06</v>
+      </c>
+      <c r="K16">
+        <v>2.220427101975634e-14</v>
+      </c>
+      <c r="L16">
+        <v>2.220427101975634e-14</v>
+      </c>
+      <c r="M16">
+        <v>0.00011402216816963444</v>
+      </c>
+      <c r="N16">
+        <v>2.220427101975634e-14</v>
+      </c>
+      <c r="O16">
+        <v>2.220427101975634e-14</v>
+      </c>
+      <c r="P16">
+        <v>2.220427101975634e-14</v>
+      </c>
+      <c r="Q16">
+        <v>3</v>
+      </c>
+      <c r="R16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B17">
+        <v>2.2204351992787591e-14</v>
+      </c>
+      <c r="C17">
+        <v>2.2204351992787591e-14</v>
+      </c>
+      <c r="D17">
+        <v>0.99992668828779829</v>
+      </c>
+      <c r="E17">
+        <v>2.2204351992787591e-14</v>
+      </c>
+      <c r="F17">
+        <v>2.2204351992787591e-14</v>
+      </c>
+      <c r="G17">
+        <v>2.2204351992787591e-14</v>
+      </c>
+      <c r="H17">
+        <v>2.2204351992787591e-14</v>
+      </c>
+      <c r="I17">
+        <v>3.1080100606969427e-08</v>
+      </c>
+      <c r="J17">
+        <v>7.537429298838119e-06</v>
+      </c>
+      <c r="K17">
+        <v>2.2204351992787591e-14</v>
+      </c>
+      <c r="L17">
+        <v>2.2204351992787591e-14</v>
+      </c>
+      <c r="M17">
+        <v>6.5743202558134678e-05</v>
+      </c>
+      <c r="N17">
+        <v>2.2204351992787591e-14</v>
+      </c>
+      <c r="O17">
+        <v>2.2204351992787591e-14</v>
+      </c>
+      <c r="P17">
+        <v>2.2204351992787591e-14</v>
+      </c>
+      <c r="Q17">
+        <v>3</v>
+      </c>
+      <c r="R17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B18">
+        <v>2.2204073035566991e-14</v>
+      </c>
+      <c r="C18">
+        <v>2.2204073035566991e-14</v>
+      </c>
+      <c r="D18">
+        <v>0.99973805539224381</v>
+      </c>
+      <c r="E18">
+        <v>2.2204073035566991e-14</v>
+      </c>
+      <c r="F18">
+        <v>2.2204073035566991e-14</v>
+      </c>
+      <c r="G18">
+        <v>2.2204073035566991e-14</v>
+      </c>
+      <c r="H18">
+        <v>2.2204073035566991e-14</v>
+      </c>
+      <c r="I18">
+        <v>2.4582467086886984e-06</v>
+      </c>
+      <c r="J18">
+        <v>6.8244244645747322e-06</v>
+      </c>
+      <c r="K18">
+        <v>2.2204073035566991e-14</v>
+      </c>
+      <c r="L18">
+        <v>2.2204073035566991e-14</v>
+      </c>
+      <c r="M18">
+        <v>0.00025266193633869126</v>
+      </c>
+      <c r="N18">
+        <v>2.2204073035566991e-14</v>
+      </c>
+      <c r="O18">
+        <v>2.2204073035566991e-14</v>
+      </c>
+      <c r="P18">
+        <v>2.2204073035566991e-14</v>
+      </c>
+      <c r="Q18">
+        <v>3</v>
+      </c>
+      <c r="R18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="B19">
+        <v>2.2204234737911725e-14</v>
+      </c>
+      <c r="C19">
+        <v>2.2204234737911725e-14</v>
+      </c>
+      <c r="D19">
+        <v>0.99984742523241255</v>
+      </c>
+      <c r="E19">
+        <v>2.2204234737911725e-14</v>
+      </c>
+      <c r="F19">
+        <v>2.2204234737911725e-14</v>
+      </c>
+      <c r="G19">
+        <v>2.2204234737911725e-14</v>
+      </c>
+      <c r="H19">
+        <v>2.2204234737911725e-14</v>
+      </c>
+      <c r="I19">
+        <v>0.00014280476366909558</v>
+      </c>
+      <c r="J19">
+        <v>5.5629903630959326e-07</v>
+      </c>
+      <c r="K19">
+        <v>2.2204234737911725e-14</v>
+      </c>
+      <c r="L19">
+        <v>2.2204234737911725e-14</v>
+      </c>
+      <c r="M19">
+        <v>9.2137046377942985e-06</v>
+      </c>
+      <c r="N19">
+        <v>2.2204234737911725e-14</v>
+      </c>
+      <c r="O19">
+        <v>2.2204234737911725e-14</v>
+      </c>
+      <c r="P19">
+        <v>2.2204234737911725e-14</v>
+      </c>
+      <c r="Q19">
+        <v>3</v>
+      </c>
+      <c r="R19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="B20">
+        <v>2.2200590413766153e-14</v>
+      </c>
+      <c r="C20">
+        <v>2.2200590413766153e-14</v>
+      </c>
+      <c r="D20">
+        <v>2.2200590413766153e-14</v>
+      </c>
+      <c r="E20">
+        <v>0.99571760656569397</v>
+      </c>
+      <c r="F20">
+        <v>2.2200590413766153e-14</v>
+      </c>
+      <c r="G20">
+        <v>2.2200590413766153e-14</v>
+      </c>
+      <c r="H20">
+        <v>2.2200590413766153e-14</v>
+      </c>
+      <c r="I20">
+        <v>1.5455682004901916e-08</v>
+      </c>
+      <c r="J20">
+        <v>1.5946435872825066e-08</v>
+      </c>
+      <c r="K20">
+        <v>2.2200590413766153e-14</v>
+      </c>
+      <c r="L20">
+        <v>2.2200590413766153e-14</v>
+      </c>
+      <c r="M20">
+        <v>0.0042823620319439176</v>
+      </c>
+      <c r="N20">
+        <v>2.2200590413766153e-14</v>
+      </c>
+      <c r="O20">
+        <v>2.2200590413766153e-14</v>
+      </c>
+      <c r="P20">
+        <v>2.2200590413766153e-14</v>
+      </c>
+      <c r="Q20">
+        <v>4</v>
+      </c>
+      <c r="R20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B21">
+        <v>2.2204447901288213e-14</v>
+      </c>
+      <c r="C21">
+        <v>2.2204447901288213e-14</v>
+      </c>
+      <c r="D21">
+        <v>2.2204447901288213e-14</v>
+      </c>
+      <c r="E21">
+        <v>0.9999914939186384</v>
+      </c>
+      <c r="F21">
+        <v>2.2204447901288213e-14</v>
+      </c>
+      <c r="G21">
+        <v>2.2204447901288213e-14</v>
+      </c>
+      <c r="H21">
+        <v>2.2204447901288213e-14</v>
+      </c>
+      <c r="I21">
+        <v>6.1445340210888375e-09</v>
+      </c>
+      <c r="J21">
+        <v>1.1228558754308044e-08</v>
+      </c>
+      <c r="K21">
+        <v>2.2204447901288213e-14</v>
+      </c>
+      <c r="L21">
+        <v>2.2204447901288213e-14</v>
+      </c>
+      <c r="M21">
+        <v>8.4887080245395736e-06</v>
+      </c>
+      <c r="N21">
+        <v>2.2204447901288213e-14</v>
+      </c>
+      <c r="O21">
+        <v>2.2204447901288213e-14</v>
+      </c>
+      <c r="P21">
+        <v>2.2204447901288213e-14</v>
+      </c>
+      <c r="Q21">
+        <v>4</v>
+      </c>
+      <c r="R21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B22">
+        <v>2.2204362077863963e-14</v>
+      </c>
+      <c r="C22">
+        <v>2.2204362077863963e-14</v>
+      </c>
+      <c r="D22">
+        <v>2.2204362077863963e-14</v>
+      </c>
+      <c r="E22">
+        <v>0.99993350396456337</v>
+      </c>
+      <c r="F22">
+        <v>2.2204362077863963e-14</v>
+      </c>
+      <c r="G22">
+        <v>2.2204362077863963e-14</v>
+      </c>
+      <c r="H22">
+        <v>2.2204362077863963e-14</v>
+      </c>
+      <c r="I22">
+        <v>2.2204362077863963e-14</v>
+      </c>
+      <c r="J22">
+        <v>1.2901211658484936e-05</v>
+      </c>
+      <c r="K22">
+        <v>2.2204362077863963e-14</v>
+      </c>
+      <c r="L22">
+        <v>2.2204362077863963e-14</v>
+      </c>
+      <c r="M22">
+        <v>5.3594823511833814e-05</v>
+      </c>
+      <c r="N22">
+        <v>2.2204362077863963e-14</v>
+      </c>
+      <c r="O22">
+        <v>2.2204362077863963e-14</v>
+      </c>
+      <c r="P22">
+        <v>2.2204362077863963e-14</v>
+      </c>
+      <c r="Q22">
+        <v>4</v>
+      </c>
+      <c r="R22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B23">
+        <v>2.2204419616549524e-14</v>
+      </c>
+      <c r="C23">
+        <v>2.2204419616549524e-14</v>
+      </c>
+      <c r="D23">
+        <v>2.2204419616549524e-14</v>
+      </c>
+      <c r="E23">
+        <v>0.9999723844159899</v>
+      </c>
+      <c r="F23">
+        <v>2.2204419616549524e-14</v>
+      </c>
+      <c r="G23">
+        <v>2.2204419616549524e-14</v>
+      </c>
+      <c r="H23">
+        <v>2.2204419616549524e-14</v>
+      </c>
+      <c r="I23">
+        <v>7.0666769005407347e-09</v>
+      </c>
+      <c r="J23">
+        <v>6.0776234017583939e-09</v>
+      </c>
+      <c r="K23">
+        <v>2.2204419616549524e-14</v>
+      </c>
+      <c r="L23">
+        <v>2.2204419616549524e-14</v>
+      </c>
+      <c r="M23">
+        <v>2.7602439465534429e-05</v>
+      </c>
+      <c r="N23">
+        <v>2.2204419616549524e-14</v>
+      </c>
+      <c r="O23">
+        <v>2.2204419616549524e-14</v>
+      </c>
+      <c r="P23">
+        <v>2.2204419616549524e-14</v>
+      </c>
+      <c r="Q23">
+        <v>4</v>
+      </c>
+      <c r="R23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B24">
+        <v>2.2204178311402907e-14</v>
+      </c>
+      <c r="C24">
+        <v>2.2204178311402907e-14</v>
+      </c>
+      <c r="D24">
+        <v>2.2204178311402907e-14</v>
+      </c>
+      <c r="E24">
+        <v>0.99980926831323758</v>
+      </c>
+      <c r="F24">
+        <v>2.2204178311402907e-14</v>
+      </c>
+      <c r="G24">
+        <v>2.2204178311402907e-14</v>
+      </c>
+      <c r="H24">
+        <v>2.2204178311402907e-14</v>
+      </c>
+      <c r="I24">
+        <v>1.0021805165966807e-13</v>
+      </c>
+      <c r="J24">
+        <v>6.8906846822015634e-06</v>
+      </c>
+      <c r="K24">
+        <v>2.2204178311402907e-14</v>
+      </c>
+      <c r="L24">
+        <v>2.2204178311402907e-14</v>
+      </c>
+      <c r="M24">
+        <v>0.0001838410017356326</v>
+      </c>
+      <c r="N24">
+        <v>2.2204178311402907e-14</v>
+      </c>
+      <c r="O24">
+        <v>2.2204178311402907e-14</v>
+      </c>
+      <c r="P24">
+        <v>2.2204178311402907e-14</v>
+      </c>
+      <c r="Q24">
+        <v>4</v>
+      </c>
+      <c r="R24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="B25">
+        <v>0.061869075644469695</v>
+      </c>
+      <c r="C25">
+        <v>0.061869075644469695</v>
+      </c>
+      <c r="D25">
+        <v>0.061869075644469695</v>
+      </c>
+      <c r="E25">
+        <v>0.13377145835130225</v>
+      </c>
+      <c r="F25">
+        <v>0.061869075644469695</v>
+      </c>
+      <c r="G25">
+        <v>0.06186907564446973</v>
+      </c>
+      <c r="H25">
+        <v>0.061869075644469695</v>
+      </c>
+      <c r="I25">
+        <v>0.06187084082011847</v>
+      </c>
+      <c r="J25">
+        <v>0.061869104518589235</v>
+      </c>
+      <c r="K25">
+        <v>0.061869075644469626</v>
+      </c>
+      <c r="L25">
+        <v>0.061869075644469682</v>
+      </c>
+      <c r="M25">
+        <v>0.061928764220823634</v>
+      </c>
+      <c r="N25">
+        <v>0.061869075644469695</v>
+      </c>
+      <c r="O25">
+        <v>0.061869075644469702</v>
+      </c>
+      <c r="P25">
+        <v>0.061869075644469695</v>
+      </c>
+      <c r="Q25">
+        <v>4</v>
+      </c>
+      <c r="R25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="B26">
+        <v>2.2204249112342547e-14</v>
+      </c>
+      <c r="C26">
+        <v>2.2204249112342547e-14</v>
+      </c>
+      <c r="D26">
+        <v>2.2204249112342547e-14</v>
+      </c>
+      <c r="E26">
+        <v>0.99985714418722538</v>
+      </c>
+      <c r="F26">
+        <v>2.2204249112342547e-14</v>
+      </c>
+      <c r="G26">
+        <v>2.2204249112342547e-14</v>
+      </c>
+      <c r="H26">
+        <v>2.2204249112342547e-14</v>
+      </c>
+      <c r="I26">
+        <v>1.48845741350034e-07</v>
+      </c>
+      <c r="J26">
+        <v>2.5799954627901988e-08</v>
+      </c>
+      <c r="K26">
+        <v>2.2204249112342547e-14</v>
+      </c>
+      <c r="L26">
+        <v>2.2204249112342547e-14</v>
+      </c>
+      <c r="M26">
+        <v>0.00014268116683440659</v>
+      </c>
+      <c r="N26">
+        <v>2.2204249112342547e-14</v>
+      </c>
+      <c r="O26">
+        <v>2.2204249112342547e-14</v>
+      </c>
+      <c r="P26">
+        <v>2.2204249112342547e-14</v>
+      </c>
+      <c r="Q26">
+        <v>4</v>
+      </c>
+      <c r="R26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B27">
+        <v>2.2200666324588545e-14</v>
+      </c>
+      <c r="C27">
+        <v>2.2200666324588545e-14</v>
+      </c>
+      <c r="D27">
+        <v>2.2200666324588545e-14</v>
+      </c>
+      <c r="E27">
+        <v>0.98540581057903598</v>
+      </c>
+      <c r="F27">
+        <v>2.2200666324588545e-14</v>
+      </c>
+      <c r="G27">
+        <v>2.2200666324588545e-14</v>
+      </c>
+      <c r="H27">
+        <v>2.2200666324588545e-14</v>
+      </c>
+      <c r="I27">
+        <v>2.2200666324588545e-14</v>
+      </c>
+      <c r="J27">
+        <v>0.014588398360808592</v>
+      </c>
+      <c r="K27">
+        <v>2.2200666324588545e-14</v>
+      </c>
+      <c r="L27">
+        <v>2.2200666324588545e-14</v>
+      </c>
+      <c r="M27">
+        <v>5.7910598890788808e-06</v>
+      </c>
+      <c r="N27">
+        <v>2.2200666324588545e-14</v>
+      </c>
+      <c r="O27">
+        <v>2.2200666324588545e-14</v>
+      </c>
+      <c r="P27">
+        <v>2.2200666324588545e-14</v>
+      </c>
+      <c r="Q27">
+        <v>4</v>
+      </c>
+      <c r="R27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="B28">
+        <v>2.2200619942503672e-14</v>
+      </c>
+      <c r="C28">
+        <v>2.2200619942503672e-14</v>
+      </c>
+      <c r="D28">
+        <v>2.2200619942503672e-14</v>
+      </c>
+      <c r="E28">
+        <v>2.2200619942503672e-14</v>
+      </c>
+      <c r="F28">
+        <v>0.99433131018393839</v>
+      </c>
+      <c r="G28">
+        <v>2.2200619942503672e-14</v>
+      </c>
+      <c r="H28">
+        <v>2.2200619942503672e-14</v>
+      </c>
+      <c r="I28">
+        <v>1.017653987052563e-05</v>
+      </c>
+      <c r="J28">
+        <v>1.6278537062515963e-05</v>
+      </c>
+      <c r="K28">
+        <v>2.2200619942503672e-14</v>
+      </c>
+      <c r="L28">
+        <v>2.2200619942503672e-14</v>
+      </c>
+      <c r="M28">
+        <v>0.0056422347388841885</v>
+      </c>
+      <c r="N28">
+        <v>2.2200619942503672e-14</v>
+      </c>
+      <c r="O28">
+        <v>2.2200619942503672e-14</v>
+      </c>
+      <c r="P28">
+        <v>2.2200619942503672e-14</v>
+      </c>
+      <c r="Q28">
+        <v>5</v>
+      </c>
+      <c r="R28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B29">
+        <v>2.2204242237670424e-14</v>
+      </c>
+      <c r="C29">
+        <v>2.2204242237670424e-14</v>
+      </c>
+      <c r="D29">
+        <v>2.2204242237670424e-14</v>
+      </c>
+      <c r="E29">
+        <v>2.2204242237670424e-14</v>
+      </c>
+      <c r="F29">
+        <v>0.99985249609722282</v>
+      </c>
+      <c r="G29">
+        <v>2.2204242237670424e-14</v>
+      </c>
+      <c r="H29">
+        <v>2.2204242237670424e-14</v>
+      </c>
+      <c r="I29">
+        <v>2.3296774818788427e-06</v>
+      </c>
+      <c r="J29">
+        <v>1.7698370061727337e-05</v>
+      </c>
+      <c r="K29">
+        <v>2.2204242237670424e-14</v>
+      </c>
+      <c r="L29">
+        <v>2.2204242237670424e-14</v>
+      </c>
+      <c r="M29">
+        <v>0.0001274758549893067</v>
+      </c>
+      <c r="N29">
+        <v>2.2204242237670424e-14</v>
+      </c>
+      <c r="O29">
+        <v>2.2204242237670424e-14</v>
+      </c>
+      <c r="P29">
+        <v>2.2204242237670424e-14</v>
+      </c>
+      <c r="Q29">
+        <v>5</v>
+      </c>
+      <c r="R29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="B30">
+        <v>2.220262224301538e-14</v>
+      </c>
+      <c r="C30">
+        <v>2.220262224301538e-14</v>
+      </c>
+      <c r="D30">
+        <v>2.220262224301538e-14</v>
+      </c>
+      <c r="E30">
+        <v>2.220262224301538e-14</v>
+      </c>
+      <c r="F30">
+        <v>0.99875361658762685</v>
+      </c>
+      <c r="G30">
+        <v>2.220262224301538e-14</v>
+      </c>
+      <c r="H30">
+        <v>2.220262224301538e-14</v>
+      </c>
+      <c r="I30">
+        <v>2.2928660101236018e-07</v>
+      </c>
+      <c r="J30">
+        <v>4.9643329535818628e-05</v>
+      </c>
+      <c r="K30">
+        <v>2.220262224301538e-14</v>
+      </c>
+      <c r="L30">
+        <v>2.220262224301538e-14</v>
+      </c>
+      <c r="M30">
+        <v>0.00119651079599208</v>
+      </c>
+      <c r="N30">
+        <v>2.220262224301538e-14</v>
+      </c>
+      <c r="O30">
+        <v>2.220262224301538e-14</v>
+      </c>
+      <c r="P30">
+        <v>2.220262224301538e-14</v>
+      </c>
+      <c r="Q30">
+        <v>5</v>
+      </c>
+      <c r="R30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="B31">
+        <v>2.2200592477726449e-14</v>
+      </c>
+      <c r="C31">
+        <v>2.2200592477726449e-14</v>
+      </c>
+      <c r="D31">
+        <v>2.2200592477726449e-14</v>
+      </c>
+      <c r="E31">
+        <v>2.2200592477726449e-14</v>
+      </c>
+      <c r="F31">
+        <v>0.99686604468788131</v>
+      </c>
+      <c r="G31">
+        <v>2.2200592477726449e-14</v>
+      </c>
+      <c r="H31">
+        <v>2.2200592477726449e-14</v>
+      </c>
+      <c r="I31">
+        <v>4.9592602936765929e-06</v>
+      </c>
+      <c r="J31">
+        <v>3.9224434562969576e-05</v>
+      </c>
+      <c r="K31">
+        <v>2.2200592477726449e-14</v>
+      </c>
+      <c r="L31">
+        <v>2.2200592477726449e-14</v>
+      </c>
+      <c r="M31">
+        <v>0.0030897716170177922</v>
+      </c>
+      <c r="N31">
+        <v>2.2200592477726449e-14</v>
+      </c>
+      <c r="O31">
+        <v>2.2200592477726449e-14</v>
+      </c>
+      <c r="P31">
+        <v>2.2200592477726449e-14</v>
+      </c>
+      <c r="Q31">
+        <v>5</v>
+      </c>
+      <c r="R31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="B32">
+        <v>2.2199274107494552e-14</v>
+      </c>
+      <c r="C32">
+        <v>2.2199274107494552e-14</v>
+      </c>
+      <c r="D32">
+        <v>2.2199274107494552e-14</v>
+      </c>
+      <c r="E32">
+        <v>2.2199274107494552e-14</v>
+      </c>
+      <c r="F32">
+        <v>0.97337054638978504</v>
+      </c>
+      <c r="G32">
+        <v>2.2199274107494552e-14</v>
+      </c>
+      <c r="H32">
+        <v>2.2199274107494552e-14</v>
+      </c>
+      <c r="I32">
+        <v>0.025177646694670507</v>
+      </c>
+      <c r="J32">
+        <v>1.5127052912830836e-07</v>
+      </c>
+      <c r="K32">
+        <v>2.2199274107494552e-14</v>
+      </c>
+      <c r="L32">
+        <v>2.2199274107494552e-14</v>
+      </c>
+      <c r="M32">
+        <v>0.0014516556447710415</v>
+      </c>
+      <c r="N32">
+        <v>2.2199274107494552e-14</v>
+      </c>
+      <c r="O32">
+        <v>2.2199274107494552e-14</v>
+      </c>
+      <c r="P32">
+        <v>2.2199274107494552e-14</v>
+      </c>
+      <c r="Q32">
+        <v>5</v>
+      </c>
+      <c r="R32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B33">
+        <v>2.2199217428279908e-14</v>
+      </c>
+      <c r="C33">
+        <v>2.2199217428279908e-14</v>
+      </c>
+      <c r="D33">
+        <v>2.2199217428279908e-14</v>
+      </c>
+      <c r="E33">
+        <v>2.2199217428279908e-14</v>
+      </c>
+      <c r="F33">
+        <v>0.97307335307754883</v>
+      </c>
+      <c r="G33">
+        <v>2.2199217428279908e-14</v>
+      </c>
+      <c r="H33">
+        <v>2.2199217428279908e-14</v>
+      </c>
+      <c r="I33">
+        <v>0.025475375845128871</v>
+      </c>
+      <c r="J33">
+        <v>1.5039486595705443e-07</v>
+      </c>
+      <c r="K33">
+        <v>2.2199217428279908e-14</v>
+      </c>
+      <c r="L33">
+        <v>2.2199217428279908e-14</v>
+      </c>
+      <c r="M33">
+        <v>0.0014511206822121665</v>
+      </c>
+      <c r="N33">
+        <v>2.2199217428279908e-14</v>
+      </c>
+      <c r="O33">
+        <v>2.2199217428279908e-14</v>
+      </c>
+      <c r="P33">
+        <v>2.2199217428279908e-14</v>
+      </c>
+      <c r="Q33">
+        <v>5</v>
+      </c>
+      <c r="R33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B34">
+        <v>2.220058955452789e-14</v>
+      </c>
+      <c r="C34">
+        <v>2.220058955452789e-14</v>
+      </c>
+      <c r="D34">
+        <v>2.220058955452789e-14</v>
+      </c>
+      <c r="E34">
+        <v>2.220058955452789e-14</v>
+      </c>
+      <c r="F34">
+        <v>0.99723597635957717</v>
+      </c>
+      <c r="G34">
+        <v>2.220058955452789e-14</v>
+      </c>
+      <c r="H34">
+        <v>2.220058955452789e-14</v>
+      </c>
+      <c r="I34">
+        <v>2.8940391067271341e-06</v>
+      </c>
+      <c r="J34">
+        <v>0.00016626483352187913</v>
+      </c>
+      <c r="K34">
+        <v>2.220058955452789e-14</v>
+      </c>
+      <c r="L34">
+        <v>2.220058955452789e-14</v>
+      </c>
+      <c r="M34">
+        <v>0.0025948647675499603</v>
+      </c>
+      <c r="N34">
+        <v>2.220058955452789e-14</v>
+      </c>
+      <c r="O34">
+        <v>2.220058955452789e-14</v>
+      </c>
+      <c r="P34">
+        <v>2.220058955452789e-14</v>
+      </c>
+      <c r="Q34">
+        <v>5</v>
+      </c>
+      <c r="R34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B35">
+        <v>2.2203269090013621e-14</v>
+      </c>
+      <c r="C35">
+        <v>2.2203269090013621e-14</v>
+      </c>
+      <c r="D35">
+        <v>2.2203269090013621e-14</v>
+      </c>
+      <c r="E35">
+        <v>2.2203269090013621e-14</v>
+      </c>
+      <c r="F35">
+        <v>2.2203269090013621e-14</v>
+      </c>
+      <c r="G35">
+        <v>0.99919324391572839</v>
+      </c>
+      <c r="H35">
+        <v>2.2203269090013621e-14</v>
+      </c>
+      <c r="I35">
+        <v>1.0187602591617522e-06</v>
+      </c>
+      <c r="J35">
+        <v>0.00019158396276424693</v>
+      </c>
+      <c r="K35">
+        <v>2.2203269090013621e-14</v>
+      </c>
+      <c r="L35">
+        <v>2.2203269090013621e-14</v>
+      </c>
+      <c r="M35">
+        <v>0.00061415336100401193</v>
+      </c>
+      <c r="N35">
+        <v>2.2203269090013621e-14</v>
+      </c>
+      <c r="O35">
+        <v>2.2203269090013621e-14</v>
+      </c>
+      <c r="P35">
+        <v>2.2203269090013621e-14</v>
+      </c>
+      <c r="Q35">
+        <v>6</v>
+      </c>
+      <c r="R35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B36">
+        <v>2.2200744067738301e-14</v>
+      </c>
+      <c r="C36">
+        <v>2.2200744067738301e-14</v>
+      </c>
+      <c r="D36">
+        <v>2.2200744067738301e-14</v>
+      </c>
+      <c r="E36">
+        <v>2.2200744067738301e-14</v>
+      </c>
+      <c r="F36">
+        <v>2.2200744067738301e-14</v>
+      </c>
+      <c r="G36">
+        <v>0.99704077136502478</v>
+      </c>
+      <c r="H36">
+        <v>2.2200744067738301e-14</v>
+      </c>
+      <c r="I36">
+        <v>7.133784264765855e-09</v>
+      </c>
+      <c r="J36">
+        <v>0.0012200236123634425</v>
+      </c>
+      <c r="K36">
+        <v>2.2200744067738301e-14</v>
+      </c>
+      <c r="L36">
+        <v>2.2200744067738301e-14</v>
+      </c>
+      <c r="M36">
+        <v>0.0017391978885832613</v>
+      </c>
+      <c r="N36">
+        <v>2.2200744067738301e-14</v>
+      </c>
+      <c r="O36">
+        <v>2.2200744067738301e-14</v>
+      </c>
+      <c r="P36">
+        <v>2.2200744067738301e-14</v>
+      </c>
+      <c r="Q36">
+        <v>6</v>
+      </c>
+      <c r="R36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B37">
+        <v>2.2201996276052379e-14</v>
+      </c>
+      <c r="C37">
+        <v>2.2201996276052379e-14</v>
+      </c>
+      <c r="D37">
+        <v>2.2201996276052379e-14</v>
+      </c>
+      <c r="E37">
+        <v>2.2201996276052379e-14</v>
+      </c>
+      <c r="F37">
+        <v>2.2201996276052379e-14</v>
+      </c>
+      <c r="G37">
+        <v>0.9983270869421822</v>
+      </c>
+      <c r="H37">
+        <v>2.2201996276052379e-14</v>
+      </c>
+      <c r="I37">
+        <v>1.2765037077881193e-07</v>
+      </c>
+      <c r="J37">
+        <v>7.1710293990402673e-08</v>
+      </c>
+      <c r="K37">
+        <v>2.2201996276052379e-14</v>
+      </c>
+      <c r="L37">
+        <v>2.2201996276052379e-14</v>
+      </c>
+      <c r="M37">
+        <v>0.0016727136969087802</v>
+      </c>
+      <c r="N37">
+        <v>2.2201996276052379e-14</v>
+      </c>
+      <c r="O37">
+        <v>2.2201996276052379e-14</v>
+      </c>
+      <c r="P37">
+        <v>2.2201996276052379e-14</v>
+      </c>
+      <c r="Q37">
+        <v>6</v>
+      </c>
+      <c r="R37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="B38">
+        <v>2.220566725936287e-14</v>
+      </c>
+      <c r="C38">
+        <v>2.220566725936287e-14</v>
+      </c>
+      <c r="D38">
+        <v>2.220566725936287e-14</v>
+      </c>
+      <c r="E38">
+        <v>2.220566725936287e-14</v>
+      </c>
+      <c r="F38">
+        <v>2.220566725936287e-14</v>
+      </c>
+      <c r="G38">
+        <v>0.087731661769037975</v>
+      </c>
+      <c r="H38">
+        <v>2.220566725936287e-14</v>
+      </c>
+      <c r="I38">
+        <v>0.7871536144207345</v>
+      </c>
+      <c r="J38">
+        <v>2.6697615827992036e-06</v>
+      </c>
+      <c r="K38">
+        <v>2.220566725936287e-14</v>
+      </c>
+      <c r="L38">
+        <v>2.220566725936287e-14</v>
+      </c>
+      <c r="M38">
+        <v>0.12511205404840048</v>
+      </c>
+      <c r="N38">
+        <v>2.220566725936287e-14</v>
+      </c>
+      <c r="O38">
+        <v>2.220566725936287e-14</v>
+      </c>
+      <c r="P38">
+        <v>2.220566725936287e-14</v>
+      </c>
+      <c r="Q38">
+        <v>8</v>
+      </c>
+      <c r="R38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B39">
+        <v>2.2204427146213243e-14</v>
+      </c>
+      <c r="C39">
+        <v>2.2204427146213243e-14</v>
+      </c>
+      <c r="D39">
+        <v>2.2204427146213243e-14</v>
+      </c>
+      <c r="E39">
+        <v>2.2204427146213243e-14</v>
+      </c>
+      <c r="F39">
+        <v>2.2204427146213243e-14</v>
+      </c>
+      <c r="G39">
+        <v>2.2204427146213243e-14</v>
+      </c>
+      <c r="H39">
+        <v>0.99997747175549623</v>
+      </c>
+      <c r="I39">
+        <v>5.6483908131481872e-07</v>
+      </c>
+      <c r="J39">
+        <v>2.9547700147735256e-08</v>
+      </c>
+      <c r="K39">
+        <v>2.2204427146213243e-14</v>
+      </c>
+      <c r="L39">
+        <v>2.2204427146213243e-14</v>
+      </c>
+      <c r="M39">
+        <v>2.1933857478192463e-05</v>
+      </c>
+      <c r="N39">
+        <v>2.2204427146213243e-14</v>
+      </c>
+      <c r="O39">
+        <v>2.2204427146213243e-14</v>
+      </c>
+      <c r="P39">
+        <v>2.2204427146213243e-14</v>
+      </c>
+      <c r="Q39">
+        <v>7</v>
+      </c>
+      <c r="R39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B40">
+        <v>2.2204444998393839e-14</v>
+      </c>
+      <c r="C40">
+        <v>2.2204444998393839e-14</v>
+      </c>
+      <c r="D40">
+        <v>2.2204444998393839e-14</v>
+      </c>
+      <c r="E40">
+        <v>2.2204444998393839e-14</v>
+      </c>
+      <c r="F40">
+        <v>2.2204444998393839e-14</v>
+      </c>
+      <c r="G40">
+        <v>2.2204444998393839e-14</v>
+      </c>
+      <c r="H40">
+        <v>0.99998953278801184</v>
+      </c>
+      <c r="I40">
+        <v>1.3190837707020925e-06</v>
+      </c>
+      <c r="J40">
+        <v>6.7856634149081351e-08</v>
+      </c>
+      <c r="K40">
+        <v>2.2204444998393839e-14</v>
+      </c>
+      <c r="L40">
+        <v>2.2204444998393839e-14</v>
+      </c>
+      <c r="M40">
+        <v>9.0802713389881987e-06</v>
+      </c>
+      <c r="N40">
+        <v>2.2204444998393839e-14</v>
+      </c>
+      <c r="O40">
+        <v>2.2204444998393839e-14</v>
+      </c>
+      <c r="P40">
+        <v>2.2204444998393839e-14</v>
+      </c>
+      <c r="Q40">
+        <v>7</v>
+      </c>
+      <c r="R40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B41">
+        <v>2.2200609050642504e-14</v>
+      </c>
+      <c r="C41">
+        <v>2.2200609050642504e-14</v>
+      </c>
+      <c r="D41">
+        <v>2.2200609050642504e-14</v>
+      </c>
+      <c r="E41">
+        <v>2.2200609050642504e-14</v>
+      </c>
+      <c r="F41">
+        <v>2.2200609050642504e-14</v>
+      </c>
+      <c r="G41">
+        <v>2.2200609050642504e-14</v>
+      </c>
+      <c r="H41">
+        <v>0.9947338660840741</v>
+      </c>
+      <c r="I41">
+        <v>1.5184604314481989e-05</v>
+      </c>
+      <c r="J41">
+        <v>4.414278487089962e-07</v>
+      </c>
+      <c r="K41">
+        <v>2.2200609050642504e-14</v>
+      </c>
+      <c r="L41">
+        <v>2.2200609050642504e-14</v>
+      </c>
+      <c r="M41">
+        <v>0.0052505078835183971</v>
+      </c>
+      <c r="N41">
+        <v>2.2200609050642504e-14</v>
+      </c>
+      <c r="O41">
+        <v>2.2200609050642504e-14</v>
+      </c>
+      <c r="P41">
+        <v>2.2200609050642504e-14</v>
+      </c>
+      <c r="Q41">
+        <v>7</v>
+      </c>
+      <c r="R41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B42">
+        <v>2.2200590566742177e-14</v>
+      </c>
+      <c r="C42">
+        <v>2.2200590566742177e-14</v>
+      </c>
+      <c r="D42">
+        <v>2.2200590566742177e-14</v>
+      </c>
+      <c r="E42">
+        <v>2.2200590566742177e-14</v>
+      </c>
+      <c r="F42">
+        <v>2.2200590566742177e-14</v>
+      </c>
+      <c r="G42">
+        <v>2.2200590566742177e-14</v>
+      </c>
+      <c r="H42">
+        <v>0.99615003379874156</v>
+      </c>
+      <c r="I42">
+        <v>3.9850218960781259e-06</v>
+      </c>
+      <c r="J42">
+        <v>2.5789358926461919e-06</v>
+      </c>
+      <c r="K42">
+        <v>2.2200590566742177e-14</v>
+      </c>
+      <c r="L42">
+        <v>2.2200590566742177e-14</v>
+      </c>
+      <c r="M42">
+        <v>0.0038434022432256498</v>
+      </c>
+      <c r="N42">
+        <v>2.2200590566742177e-14</v>
+      </c>
+      <c r="O42">
+        <v>2.2200590566742177e-14</v>
+      </c>
+      <c r="P42">
+        <v>2.2200590566742177e-14</v>
+      </c>
+      <c r="Q42">
+        <v>7</v>
+      </c>
+      <c r="R42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B43">
+        <v>2.2204449767053145e-14</v>
+      </c>
+      <c r="C43">
+        <v>2.2204449767053145e-14</v>
+      </c>
+      <c r="D43">
+        <v>2.2204449767053145e-14</v>
+      </c>
+      <c r="E43">
+        <v>2.2204449767053145e-14</v>
+      </c>
+      <c r="F43">
+        <v>2.2204449767053145e-14</v>
+      </c>
+      <c r="G43">
+        <v>2.2204449767053145e-14</v>
+      </c>
+      <c r="H43">
+        <v>0.99999275437581781</v>
+      </c>
+      <c r="I43">
+        <v>3.6789035477932109e-07</v>
+      </c>
+      <c r="J43">
+        <v>3.2099664475185412e-08</v>
+      </c>
+      <c r="K43">
+        <v>2.2204449767053145e-14</v>
+      </c>
+      <c r="L43">
+        <v>2.2204449767053145e-14</v>
+      </c>
+      <c r="M43">
+        <v>6.845633918639928e-06</v>
+      </c>
+      <c r="N43">
+        <v>2.2204449767053145e-14</v>
+      </c>
+      <c r="O43">
+        <v>2.2204449767053145e-14</v>
+      </c>
+      <c r="P43">
+        <v>2.2204449767053145e-14</v>
+      </c>
+      <c r="Q43">
+        <v>7</v>
+      </c>
+      <c r="R43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="B44">
+        <v>2.2269330488220833e-14</v>
+      </c>
+      <c r="C44">
+        <v>2.2269330488220833e-14</v>
+      </c>
+      <c r="D44">
+        <v>2.2269330488220833e-14</v>
+      </c>
+      <c r="E44">
+        <v>2.2269330488220833e-14</v>
+      </c>
+      <c r="F44">
+        <v>2.2269330488220833e-14</v>
+      </c>
+      <c r="G44">
+        <v>2.2269330488220833e-14</v>
+      </c>
+      <c r="H44">
+        <v>2.226933048822083e-14</v>
+      </c>
+      <c r="I44">
+        <v>0.99868636785462372</v>
+      </c>
+      <c r="J44">
+        <v>2.9123055000538109e-05</v>
+      </c>
+      <c r="K44">
+        <v>2.2269330488220827e-14</v>
+      </c>
+      <c r="L44">
+        <v>2.2269330488220827e-14</v>
+      </c>
+      <c r="M44">
+        <v>0.0012845090901081888</v>
+      </c>
+      <c r="N44">
+        <v>2.2269330488220827e-14</v>
+      </c>
+      <c r="O44">
+        <v>2.2269330488220827e-14</v>
+      </c>
+      <c r="P44">
+        <v>2.2269330488220827e-14</v>
+      </c>
+      <c r="Q44">
+        <v>8</v>
+      </c>
+      <c r="R44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B45">
+        <v>2.2141913529098271e-13</v>
+      </c>
+      <c r="C45">
+        <v>2.2141913529098271e-13</v>
+      </c>
+      <c r="D45">
+        <v>2.214191352909821e-13</v>
+      </c>
+      <c r="E45">
+        <v>2.2141913529098251e-13</v>
+      </c>
+      <c r="F45">
+        <v>2.2141913529098251e-13</v>
+      </c>
+      <c r="G45">
+        <v>2.214191352909821e-13</v>
+      </c>
+      <c r="H45">
+        <v>2.214191352909821e-13</v>
+      </c>
+      <c r="I45">
+        <v>0.94407885351452503</v>
+      </c>
+      <c r="J45">
+        <v>0.055108828001536998</v>
+      </c>
+      <c r="K45">
+        <v>2.214191352909819e-13</v>
+      </c>
+      <c r="L45">
+        <v>2.2141913529098182e-13</v>
+      </c>
+      <c r="M45">
+        <v>0.00081231848128101344</v>
+      </c>
+      <c r="N45">
+        <v>2.2141913529098177e-13</v>
+      </c>
+      <c r="O45">
+        <v>2.2141913529098195e-13</v>
+      </c>
+      <c r="P45">
+        <v>2.2141913529098177e-13</v>
+      </c>
+      <c r="Q45">
+        <v>8</v>
+      </c>
+      <c r="R45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="B46">
+        <v>4.4612854131007856e-14</v>
+      </c>
+      <c r="C46">
+        <v>4.4612854131007856e-14</v>
+      </c>
+      <c r="D46">
+        <v>4.4612854131007641e-14</v>
+      </c>
+      <c r="E46">
+        <v>4.4612854131007641e-14</v>
+      </c>
+      <c r="F46">
+        <v>4.4612854131007641e-14</v>
+      </c>
+      <c r="G46">
+        <v>4.4612854131007338e-14</v>
+      </c>
+      <c r="H46">
+        <v>4.461285413100725e-14</v>
+      </c>
+      <c r="I46">
+        <v>0.99805904511433563</v>
+      </c>
+      <c r="J46">
+        <v>0.001060449418495864</v>
+      </c>
+      <c r="K46">
+        <v>4.4612854131013277e-14</v>
+      </c>
+      <c r="L46">
+        <v>4.4612854131013245e-14</v>
+      </c>
+      <c r="M46">
+        <v>0.00088050546663302677</v>
+      </c>
+      <c r="N46">
+        <v>4.4612854131013346e-14</v>
+      </c>
+      <c r="O46">
+        <v>4.4612854131013592e-14</v>
+      </c>
+      <c r="P46">
+        <v>4.4612854131013479e-14</v>
+      </c>
+      <c r="Q46">
+        <v>8</v>
+      </c>
+      <c r="R46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="B47">
+        <v>1.860515414311539e-13</v>
+      </c>
+      <c r="C47">
+        <v>1.860515414311539e-13</v>
+      </c>
+      <c r="D47">
+        <v>1.860515414311531e-13</v>
+      </c>
+      <c r="E47">
+        <v>1.8605154143115363e-13</v>
+      </c>
+      <c r="F47">
+        <v>1.8605154143115363e-13</v>
+      </c>
+      <c r="G47">
+        <v>1.8605154143115241e-13</v>
+      </c>
+      <c r="H47">
+        <v>1.8605154143115241e-13</v>
+      </c>
+      <c r="I47">
+        <v>0.027543414235112553</v>
+      </c>
+      <c r="J47">
+        <v>0.9724015054336429</v>
+      </c>
+      <c r="K47">
+        <v>1.8605154143115176e-13</v>
+      </c>
+      <c r="L47">
+        <v>1.8605154143115176e-13</v>
+      </c>
+      <c r="M47">
+        <v>5.5080329011648913e-05</v>
+      </c>
+      <c r="N47">
+        <v>1.8605154143115176e-13</v>
+      </c>
+      <c r="O47">
+        <v>1.8605154143115226e-13</v>
+      </c>
+      <c r="P47">
+        <v>1.8605154143115176e-13</v>
+      </c>
+      <c r="Q47">
+        <v>9</v>
+      </c>
+      <c r="R47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="B48">
+        <v>2.2204460379741668e-14</v>
+      </c>
+      <c r="C48">
+        <v>2.2204460379741668e-14</v>
+      </c>
+      <c r="D48">
+        <v>2.2204460379741668e-14</v>
+      </c>
+      <c r="E48">
+        <v>2.2204460379741668e-14</v>
+      </c>
+      <c r="F48">
+        <v>2.2204460379741668e-14</v>
+      </c>
+      <c r="G48">
+        <v>2.2204460379741668e-14</v>
+      </c>
+      <c r="H48">
+        <v>2.2204460379741668e-14</v>
+      </c>
+      <c r="I48">
+        <v>2.7876964390997016e-09</v>
+      </c>
+      <c r="J48">
+        <v>5.9294947801777051e-08</v>
+      </c>
+      <c r="K48">
+        <v>0.9999999238253483</v>
+      </c>
+      <c r="L48">
+        <v>2.2204460379741668e-14</v>
+      </c>
+      <c r="M48">
+        <v>1.4091763162969037e-08</v>
+      </c>
+      <c r="N48">
+        <v>2.2204460379741668e-14</v>
+      </c>
+      <c r="O48">
+        <v>2.2204460379741668e-14</v>
+      </c>
+      <c r="P48">
+        <v>2.2204460379741668e-14</v>
+      </c>
+      <c r="Q48">
+        <v>10</v>
+      </c>
+      <c r="R48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="B49">
+        <v>2.2204162237506835e-14</v>
+      </c>
+      <c r="C49">
+        <v>2.2204162237506835e-14</v>
+      </c>
+      <c r="D49">
+        <v>2.2204162237506835e-14</v>
+      </c>
+      <c r="E49">
+        <v>2.2204162237506835e-14</v>
+      </c>
+      <c r="F49">
+        <v>2.2204162237506835e-14</v>
+      </c>
+      <c r="G49">
+        <v>2.2204162237506835e-14</v>
+      </c>
+      <c r="H49">
+        <v>2.2204162237506835e-14</v>
+      </c>
+      <c r="I49">
+        <v>9.8589272606028478e-12</v>
+      </c>
+      <c r="J49">
+        <v>0.00017683592558486399</v>
+      </c>
+      <c r="K49">
+        <v>0.99979839719709251</v>
+      </c>
+      <c r="L49">
+        <v>2.2204162237506835e-14</v>
+      </c>
+      <c r="M49">
+        <v>2.4766867219415548e-05</v>
+      </c>
+      <c r="N49">
+        <v>2.2204162237506835e-14</v>
+      </c>
+      <c r="O49">
+        <v>2.2204162237506835e-14</v>
+      </c>
+      <c r="P49">
+        <v>2.2204162237506835e-14</v>
+      </c>
+      <c r="Q49">
+        <v>10</v>
+      </c>
+      <c r="R49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="B50">
+        <v>2.2204458448233204e-14</v>
+      </c>
+      <c r="C50">
+        <v>2.2204458448233204e-14</v>
+      </c>
+      <c r="D50">
+        <v>2.2204458448233204e-14</v>
+      </c>
+      <c r="E50">
+        <v>2.2204458448233204e-14</v>
+      </c>
+      <c r="F50">
+        <v>2.2204458448233204e-14</v>
+      </c>
+      <c r="G50">
+        <v>2.2204458448233204e-14</v>
+      </c>
+      <c r="H50">
+        <v>2.2204458448233204e-14</v>
+      </c>
+      <c r="I50">
+        <v>7.1397873130090668e-09</v>
+      </c>
+      <c r="J50">
+        <v>5.8827653457403634e-10</v>
+      </c>
+      <c r="K50">
+        <v>0.9999986190086354</v>
+      </c>
+      <c r="L50">
+        <v>2.2204458448233204e-14</v>
+      </c>
+      <c r="M50">
+        <v>1.3732630566133548e-06</v>
+      </c>
+      <c r="N50">
+        <v>2.2204458448233204e-14</v>
+      </c>
+      <c r="O50">
+        <v>2.2204458448233204e-14</v>
+      </c>
+      <c r="P50">
+        <v>2.2204458448233204e-14</v>
+      </c>
+      <c r="Q50">
+        <v>10</v>
+      </c>
+      <c r="R50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="B51">
+        <v>2.2204459210076216e-14</v>
+      </c>
+      <c r="C51">
+        <v>2.2204459210076216e-14</v>
+      </c>
+      <c r="D51">
+        <v>2.2204459210076216e-14</v>
+      </c>
+      <c r="E51">
+        <v>2.2204459210076216e-14</v>
+      </c>
+      <c r="F51">
+        <v>2.2204459210076216e-14</v>
+      </c>
+      <c r="G51">
+        <v>2.2204459210076216e-14</v>
+      </c>
+      <c r="H51">
+        <v>2.2204459210076216e-14</v>
+      </c>
+      <c r="I51">
+        <v>8.658365683864047e-07</v>
+      </c>
+      <c r="J51">
+        <v>1.0969412713961725e-10</v>
+      </c>
+      <c r="K51">
+        <v>0.99999913366742066</v>
+      </c>
+      <c r="L51">
+        <v>2.2204459210076216e-14</v>
+      </c>
+      <c r="M51">
+        <v>3.8607277945029451e-10</v>
+      </c>
+      <c r="N51">
+        <v>2.2204459210076216e-14</v>
+      </c>
+      <c r="O51">
+        <v>2.2204459210076216e-14</v>
+      </c>
+      <c r="P51">
+        <v>2.2204459210076216e-14</v>
+      </c>
+      <c r="Q51">
+        <v>10</v>
+      </c>
+      <c r="R51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B52">
+        <v>2.2204456244564483e-14</v>
+      </c>
+      <c r="C52">
+        <v>2.2204456244564483e-14</v>
+      </c>
+      <c r="D52">
+        <v>2.2204456244564483e-14</v>
+      </c>
+      <c r="E52">
+        <v>2.2204456244564483e-14</v>
+      </c>
+      <c r="F52">
+        <v>2.2204456244564483e-14</v>
+      </c>
+      <c r="G52">
+        <v>2.2204456244564483e-14</v>
+      </c>
+      <c r="H52">
+        <v>2.2204456244564483e-14</v>
+      </c>
+      <c r="I52">
+        <v>1.0193967861174363e-07</v>
+      </c>
+      <c r="J52">
+        <v>2.3790689680222773e-06</v>
+      </c>
+      <c r="K52">
+        <v>0.99999713032376392</v>
+      </c>
+      <c r="L52">
+        <v>2.2204456244564483e-14</v>
+      </c>
+      <c r="M52">
+        <v>3.8866734518986816e-07</v>
+      </c>
+      <c r="N52">
+        <v>2.2204456244564483e-14</v>
+      </c>
+      <c r="O52">
+        <v>2.2204456244564483e-14</v>
+      </c>
+      <c r="P52">
+        <v>2.2204456244564483e-14</v>
+      </c>
+      <c r="Q52">
+        <v>10</v>
+      </c>
+      <c r="R52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B53">
+        <v>2.2204460179237141e-14</v>
+      </c>
+      <c r="C53">
+        <v>2.2204460179237141e-14</v>
+      </c>
+      <c r="D53">
+        <v>2.2204460179237141e-14</v>
+      </c>
+      <c r="E53">
+        <v>2.2204460179237141e-14</v>
+      </c>
+      <c r="F53">
+        <v>2.2204460179237141e-14</v>
+      </c>
+      <c r="G53">
+        <v>2.2204460179237141e-14</v>
+      </c>
+      <c r="H53">
+        <v>2.2204460179237141e-14</v>
+      </c>
+      <c r="I53">
+        <v>7.6928694189886969e-11</v>
+      </c>
+      <c r="J53">
+        <v>2.047741864157636e-07</v>
+      </c>
+      <c r="K53">
+        <v>0.99999978837642101</v>
+      </c>
+      <c r="L53">
+        <v>2.2204460179237141e-14</v>
+      </c>
+      <c r="M53">
+        <v>6.7722196462032814e-09</v>
+      </c>
+      <c r="N53">
+        <v>2.2204460179237141e-14</v>
+      </c>
+      <c r="O53">
+        <v>2.2204460179237141e-14</v>
+      </c>
+      <c r="P53">
+        <v>2.2204460179237141e-14</v>
+      </c>
+      <c r="Q53">
+        <v>10</v>
+      </c>
+      <c r="R53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="B54">
+        <v>2.2204374889835111e-14</v>
+      </c>
+      <c r="C54">
+        <v>2.2204374889835111e-14</v>
+      </c>
+      <c r="D54">
+        <v>2.2204374889835111e-14</v>
+      </c>
+      <c r="E54">
+        <v>2.2204374889835111e-14</v>
+      </c>
+      <c r="F54">
+        <v>2.2204374889835111e-14</v>
+      </c>
+      <c r="G54">
+        <v>2.2204374889835111e-14</v>
+      </c>
+      <c r="H54">
+        <v>2.2204374889835111e-14</v>
+      </c>
+      <c r="I54">
+        <v>2.1407793485604178e-10</v>
+      </c>
+      <c r="J54">
+        <v>2.2204374889835111e-14</v>
+      </c>
+      <c r="K54">
+        <v>2.2204374889835111e-14</v>
+      </c>
+      <c r="L54">
+        <v>0.99994216213178966</v>
+      </c>
+      <c r="M54">
+        <v>5.7837653866002753e-05</v>
+      </c>
+      <c r="N54">
+        <v>2.2204374889835111e-14</v>
+      </c>
+      <c r="O54">
+        <v>2.2204374889835111e-14</v>
+      </c>
+      <c r="P54">
+        <v>2.2204374889835111e-14</v>
+      </c>
+      <c r="Q54">
+        <v>11</v>
+      </c>
+      <c r="R54">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="B55">
+        <v>2.220445095983975e-14</v>
+      </c>
+      <c r="C55">
+        <v>2.220445095983975e-14</v>
+      </c>
+      <c r="D55">
+        <v>2.220445095983975e-14</v>
+      </c>
+      <c r="E55">
+        <v>2.220445095983975e-14</v>
+      </c>
+      <c r="F55">
+        <v>2.220445095983975e-14</v>
+      </c>
+      <c r="G55">
+        <v>2.220445095983975e-14</v>
+      </c>
+      <c r="H55">
+        <v>2.220445095983975e-14</v>
+      </c>
+      <c r="I55">
+        <v>1.8686009969594449e-13</v>
+      </c>
+      <c r="J55">
+        <v>7.0712542148040321e-11</v>
+      </c>
+      <c r="K55">
+        <v>2.220445095983975e-14</v>
+      </c>
+      <c r="L55">
+        <v>0.99999356018327801</v>
+      </c>
+      <c r="M55">
+        <v>6.4397455782762271e-06</v>
+      </c>
+      <c r="N55">
+        <v>2.220445095983975e-14</v>
+      </c>
+      <c r="O55">
+        <v>2.220445095983975e-14</v>
+      </c>
+      <c r="P55">
+        <v>2.220445095983975e-14</v>
+      </c>
+      <c r="Q55">
+        <v>11</v>
+      </c>
+      <c r="R55">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B56">
+        <v>2.2204460488048074e-14</v>
+      </c>
+      <c r="C56">
+        <v>2.2204460488048074e-14</v>
+      </c>
+      <c r="D56">
+        <v>2.2204460488048074e-14</v>
+      </c>
+      <c r="E56">
+        <v>2.2204460488048074e-14</v>
+      </c>
+      <c r="F56">
+        <v>2.2204460488048074e-14</v>
+      </c>
+      <c r="G56">
+        <v>2.2204460488048074e-14</v>
+      </c>
+      <c r="H56">
+        <v>2.2204460488048074e-14</v>
+      </c>
+      <c r="I56">
+        <v>4.0279008037421733e-14</v>
+      </c>
+      <c r="J56">
+        <v>1.6583794506895002e-12</v>
+      </c>
+      <c r="K56">
+        <v>2.2204460488048074e-14</v>
+      </c>
+      <c r="L56">
+        <v>0.99999999699067355</v>
+      </c>
+      <c r="M56">
+        <v>3.0073834766642997e-09</v>
+      </c>
+      <c r="N56">
+        <v>2.2204460488048074e-14</v>
+      </c>
+      <c r="O56">
+        <v>2.2204460488048074e-14</v>
+      </c>
+      <c r="P56">
+        <v>2.2204460488048074e-14</v>
+      </c>
+      <c r="Q56">
+        <v>11</v>
+      </c>
+      <c r="R56">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="B57">
+        <v>2.2204455775337714e-14</v>
+      </c>
+      <c r="C57">
+        <v>2.2204455775337714e-14</v>
+      </c>
+      <c r="D57">
+        <v>2.2204455775337714e-14</v>
+      </c>
+      <c r="E57">
+        <v>2.2204455775337714e-14</v>
+      </c>
+      <c r="F57">
+        <v>2.2204455775337714e-14</v>
+      </c>
+      <c r="G57">
+        <v>2.2204455775337714e-14</v>
+      </c>
+      <c r="H57">
+        <v>2.2204455775337714e-14</v>
+      </c>
+      <c r="I57">
+        <v>3.2369621780968725e-13</v>
+      </c>
+      <c r="J57">
+        <v>1.0507039478018318e-11</v>
+      </c>
+      <c r="K57">
+        <v>2.2204455775337714e-14</v>
+      </c>
+      <c r="L57">
+        <v>0.99999681333668766</v>
+      </c>
+      <c r="M57">
+        <v>3.1866522373308021e-06</v>
+      </c>
+      <c r="N57">
+        <v>2.2204455775337714e-14</v>
+      </c>
+      <c r="O57">
+        <v>2.2204455775337714e-14</v>
+      </c>
+      <c r="P57">
+        <v>2.2204455775337714e-14</v>
+      </c>
+      <c r="Q57">
+        <v>11</v>
+      </c>
+      <c r="R57">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="B58">
+        <v>2.220444632796055e-14</v>
+      </c>
+      <c r="C58">
+        <v>2.220444632796055e-14</v>
+      </c>
+      <c r="D58">
+        <v>2.220444632796055e-14</v>
+      </c>
+      <c r="E58">
+        <v>2.220444632796055e-14</v>
+      </c>
+      <c r="F58">
+        <v>2.220444632796055e-14</v>
+      </c>
+      <c r="G58">
+        <v>2.220444632796055e-14</v>
+      </c>
+      <c r="H58">
+        <v>2.220444632796055e-14</v>
+      </c>
+      <c r="I58">
+        <v>3.3753120291062631e-11</v>
+      </c>
+      <c r="J58">
+        <v>2.220444632796055e-14</v>
+      </c>
+      <c r="K58">
+        <v>2.220444632796055e-14</v>
+      </c>
+      <c r="L58">
+        <v>0.99999043101642615</v>
+      </c>
+      <c r="M58">
+        <v>9.568949554441587e-06</v>
+      </c>
+      <c r="N58">
+        <v>2.220444632796055e-14</v>
+      </c>
+      <c r="O58">
+        <v>2.220444632796055e-14</v>
+      </c>
+      <c r="P58">
+        <v>2.220444632796055e-14</v>
+      </c>
+      <c r="Q58">
+        <v>11</v>
+      </c>
+      <c r="R58">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="B59">
+        <v>2.2204274183382468e-14</v>
+      </c>
+      <c r="C59">
+        <v>2.2204274183382468e-14</v>
+      </c>
+      <c r="D59">
+        <v>2.2204274183382468e-14</v>
+      </c>
+      <c r="E59">
+        <v>2.2204274183382468e-14</v>
+      </c>
+      <c r="F59">
+        <v>2.2204274183382468e-14</v>
+      </c>
+      <c r="G59">
+        <v>2.2204274183382468e-14</v>
+      </c>
+      <c r="H59">
+        <v>2.2204274183382468e-14</v>
+      </c>
+      <c r="I59">
+        <v>1.4078822781819066e-08</v>
+      </c>
+      <c r="J59">
+        <v>0.00013787757058545858</v>
+      </c>
+      <c r="K59">
+        <v>2.2204274183382468e-14</v>
+      </c>
+      <c r="L59">
+        <v>2.2204274183382468e-14</v>
+      </c>
+      <c r="M59">
+        <v>0.99986210835032541</v>
+      </c>
+      <c r="N59">
+        <v>2.2204274183382468e-14</v>
+      </c>
+      <c r="O59">
+        <v>2.2204274183382468e-14</v>
+      </c>
+      <c r="P59">
+        <v>2.2204274183382468e-14</v>
+      </c>
+      <c r="Q59">
+        <v>12</v>
+      </c>
+      <c r="R59">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="B60">
+        <v>2.2214086234585388e-14</v>
+      </c>
+      <c r="C60">
+        <v>2.2214086234585388e-14</v>
+      </c>
+      <c r="D60">
+        <v>2.2214086234585388e-14</v>
+      </c>
+      <c r="E60">
+        <v>2.2214086234585388e-14</v>
+      </c>
+      <c r="F60">
+        <v>2.2214086234585388e-14</v>
+      </c>
+      <c r="G60">
+        <v>2.2214086234585388e-14</v>
+      </c>
+      <c r="H60">
+        <v>2.2214086234585388e-14</v>
+      </c>
+      <c r="I60">
+        <v>4.0064346583275545e-10</v>
+      </c>
+      <c r="J60">
+        <v>0.00014172289876942081</v>
+      </c>
+      <c r="K60">
+        <v>2.2214086234585385e-14</v>
+      </c>
+      <c r="L60">
+        <v>2.2214086234585385e-14</v>
+      </c>
+      <c r="M60">
+        <v>0.99985827670032057</v>
+      </c>
+      <c r="N60">
+        <v>2.2214086234585385e-14</v>
+      </c>
+      <c r="O60">
+        <v>2.2214086234585385e-14</v>
+      </c>
+      <c r="P60">
+        <v>2.2214086234585385e-14</v>
+      </c>
+      <c r="Q60">
+        <v>12</v>
+      </c>
+      <c r="R60">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="B61">
+        <v>2.2213632562511856e-14</v>
+      </c>
+      <c r="C61">
+        <v>2.2213632562511856e-14</v>
+      </c>
+      <c r="D61">
+        <v>2.2213632562511856e-14</v>
+      </c>
+      <c r="E61">
+        <v>2.2213632562511856e-14</v>
+      </c>
+      <c r="F61">
+        <v>2.2213632562511856e-14</v>
+      </c>
+      <c r="G61">
+        <v>2.2213632562511856e-14</v>
+      </c>
+      <c r="H61">
+        <v>2.2213632562511856e-14</v>
+      </c>
+      <c r="I61">
+        <v>1.3302890615259383e-05</v>
+      </c>
+      <c r="J61">
+        <v>4.1052742794046404e-05</v>
+      </c>
+      <c r="K61">
+        <v>2.2213632562511856e-14</v>
+      </c>
+      <c r="L61">
+        <v>2.2213632562511856e-14</v>
+      </c>
+      <c r="M61">
+        <v>0.99994564436632416</v>
+      </c>
+      <c r="N61">
+        <v>2.2213632562511856e-14</v>
+      </c>
+      <c r="O61">
+        <v>2.2213632562511856e-14</v>
+      </c>
+      <c r="P61">
+        <v>2.2213632562511856e-14</v>
+      </c>
+      <c r="Q61">
+        <v>12</v>
+      </c>
+      <c r="R61">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="B62">
+        <v>2.2204408711321761e-14</v>
+      </c>
+      <c r="C62">
+        <v>2.2204408711321761e-14</v>
+      </c>
+      <c r="D62">
+        <v>2.2204408711321761e-14</v>
+      </c>
+      <c r="E62">
+        <v>2.2204408711321761e-14</v>
+      </c>
+      <c r="F62">
+        <v>2.2204408711321761e-14</v>
+      </c>
+      <c r="G62">
+        <v>2.2204408711321761e-14</v>
+      </c>
+      <c r="H62">
+        <v>2.2204408711321761e-14</v>
+      </c>
+      <c r="I62">
+        <v>1.3488425458058863e-12</v>
+      </c>
+      <c r="J62">
+        <v>4.3837646311263142e-07</v>
+      </c>
+      <c r="K62">
+        <v>2.2204408711321761e-14</v>
+      </c>
+      <c r="L62">
+        <v>2.2204408711321761e-14</v>
+      </c>
+      <c r="M62">
+        <v>3.454548063318475e-05</v>
+      </c>
+      <c r="N62">
+        <v>0.99996501614131073</v>
+      </c>
+      <c r="O62">
+        <v>2.2204408711321761e-14</v>
+      </c>
+      <c r="P62">
+        <v>2.2204408711321761e-14</v>
+      </c>
+      <c r="Q62">
+        <v>13</v>
+      </c>
+      <c r="R62">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="B63">
+        <v>2.2204217089191969e-14</v>
+      </c>
+      <c r="C63">
+        <v>2.2204217089191969e-14</v>
+      </c>
+      <c r="D63">
+        <v>2.2204217089191969e-14</v>
+      </c>
+      <c r="E63">
+        <v>2.2204217089191969e-14</v>
+      </c>
+      <c r="F63">
+        <v>2.2204217089191969e-14</v>
+      </c>
+      <c r="G63">
+        <v>2.2204217089191969e-14</v>
+      </c>
+      <c r="H63">
+        <v>2.2204217089191969e-14</v>
+      </c>
+      <c r="I63">
+        <v>9.9253985714945028e-12</v>
+      </c>
+      <c r="J63">
+        <v>1.9439518995336071e-06</v>
+      </c>
+      <c r="K63">
+        <v>2.2204217089191969e-14</v>
+      </c>
+      <c r="L63">
+        <v>2.2204217089191969e-14</v>
+      </c>
+      <c r="M63">
+        <v>0.00016256435794632742</v>
+      </c>
+      <c r="N63">
+        <v>0.99983549167998453</v>
+      </c>
+      <c r="O63">
+        <v>2.2204217089191969e-14</v>
+      </c>
+      <c r="P63">
+        <v>2.2204217089191969e-14</v>
+      </c>
+      <c r="Q63">
+        <v>13</v>
+      </c>
+      <c r="R63">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="B64">
+        <v>2.2200594869953023e-14</v>
+      </c>
+      <c r="C64">
+        <v>2.2200594869953023e-14</v>
+      </c>
+      <c r="D64">
+        <v>2.2200594869953023e-14</v>
+      </c>
+      <c r="E64">
+        <v>2.2200594869953023e-14</v>
+      </c>
+      <c r="F64">
+        <v>2.2200594869953023e-14</v>
+      </c>
+      <c r="G64">
+        <v>2.2200594869953023e-14</v>
+      </c>
+      <c r="H64">
+        <v>2.2200594869953023e-14</v>
+      </c>
+      <c r="I64">
+        <v>2.0877444671374689e-10</v>
+      </c>
+      <c r="J64">
+        <v>2.6553594789014924e-05</v>
+      </c>
+      <c r="K64">
+        <v>2.2200594869953023e-14</v>
+      </c>
+      <c r="L64">
+        <v>2.2200594869953023e-14</v>
+      </c>
+      <c r="M64">
+        <v>0.0035618754037216567</v>
+      </c>
+      <c r="N64">
+        <v>0.99641157079247067</v>
+      </c>
+      <c r="O64">
+        <v>2.2200594869953023e-14</v>
+      </c>
+      <c r="P64">
+        <v>2.2200594869953023e-14</v>
+      </c>
+      <c r="Q64">
+        <v>13</v>
+      </c>
+      <c r="R64">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="B65">
+        <v>2.2204217089191969e-14</v>
+      </c>
+      <c r="C65">
+        <v>2.2204217089191969e-14</v>
+      </c>
+      <c r="D65">
+        <v>2.2204217089191969e-14</v>
+      </c>
+      <c r="E65">
+        <v>2.2204217089191969e-14</v>
+      </c>
+      <c r="F65">
+        <v>2.2204217089191969e-14</v>
+      </c>
+      <c r="G65">
+        <v>2.2204217089191969e-14</v>
+      </c>
+      <c r="H65">
+        <v>2.2204217089191969e-14</v>
+      </c>
+      <c r="I65">
+        <v>9.9253985714945028e-12</v>
+      </c>
+      <c r="J65">
+        <v>1.9439518995336071e-06</v>
+      </c>
+      <c r="K65">
+        <v>2.2204217089191969e-14</v>
+      </c>
+      <c r="L65">
+        <v>2.2204217089191969e-14</v>
+      </c>
+      <c r="M65">
+        <v>0.00016256435794632742</v>
+      </c>
+      <c r="N65">
+        <v>0.99983549167998453</v>
+      </c>
+      <c r="O65">
+        <v>2.2204217089191969e-14</v>
+      </c>
+      <c r="P65">
+        <v>2.2204217089191969e-14</v>
+      </c>
+      <c r="Q65">
+        <v>13</v>
+      </c>
+      <c r="R65">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B66">
+        <v>2.2204427539562659e-14</v>
+      </c>
+      <c r="C66">
+        <v>2.2204427539562659e-14</v>
+      </c>
+      <c r="D66">
+        <v>2.2204427539562659e-14</v>
+      </c>
+      <c r="E66">
+        <v>2.2204427539562659e-14</v>
+      </c>
+      <c r="F66">
+        <v>2.2204427539562659e-14</v>
+      </c>
+      <c r="G66">
+        <v>2.2204427539562659e-14</v>
+      </c>
+      <c r="H66">
+        <v>2.2204427539562659e-14</v>
+      </c>
+      <c r="I66">
+        <v>1.4028614559007658e-12</v>
+      </c>
+      <c r="J66">
+        <v>2.9100523221360575e-07</v>
+      </c>
+      <c r="K66">
+        <v>2.2204427539562659e-14</v>
+      </c>
+      <c r="L66">
+        <v>2.2204427539562659e-14</v>
+      </c>
+      <c r="M66">
+        <v>2.1971479340561794e-05</v>
+      </c>
+      <c r="N66">
+        <v>0.99997773751378016</v>
+      </c>
+      <c r="O66">
+        <v>2.2204427539562659e-14</v>
+      </c>
+      <c r="P66">
+        <v>2.2204427539562659e-14</v>
+      </c>
+      <c r="Q66">
+        <v>13</v>
+      </c>
+      <c r="R66">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="B67">
+        <v>2.220446048831882e-14</v>
+      </c>
+      <c r="C67">
+        <v>2.220446048831882e-14</v>
+      </c>
+      <c r="D67">
+        <v>2.220446048831882e-14</v>
+      </c>
+      <c r="E67">
+        <v>2.220446048831882e-14</v>
+      </c>
+      <c r="F67">
+        <v>2.220446048831882e-14</v>
+      </c>
+      <c r="G67">
+        <v>2.220446048831882e-14</v>
+      </c>
+      <c r="H67">
+        <v>2.220446048831882e-14</v>
+      </c>
+      <c r="I67">
+        <v>2.1287925754150899e-13</v>
+      </c>
+      <c r="J67">
+        <v>1.9716106166075469e-09</v>
+      </c>
+      <c r="K67">
+        <v>2.220446048831882e-14</v>
+      </c>
+      <c r="L67">
+        <v>2.220446048831882e-14</v>
+      </c>
+      <c r="M67">
+        <v>8.5436089221073497e-10</v>
+      </c>
+      <c r="N67">
+        <v>0.99999999717357135</v>
+      </c>
+      <c r="O67">
+        <v>2.220446048831882e-14</v>
+      </c>
+      <c r="P67">
+        <v>2.220446048831882e-14</v>
+      </c>
+      <c r="Q67">
+        <v>13</v>
+      </c>
+      <c r="R67">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B68">
+        <v>2.2204397199504756e-14</v>
+      </c>
+      <c r="C68">
+        <v>2.2204397199504756e-14</v>
+      </c>
+      <c r="D68">
+        <v>2.2204397199504756e-14</v>
+      </c>
+      <c r="E68">
+        <v>2.2204397199504756e-14</v>
+      </c>
+      <c r="F68">
+        <v>2.2204397199504756e-14</v>
+      </c>
+      <c r="G68">
+        <v>2.2204397199504756e-14</v>
+      </c>
+      <c r="H68">
+        <v>2.2204397199504756e-14</v>
+      </c>
+      <c r="I68">
+        <v>1.1541269083322001e-06</v>
+      </c>
+      <c r="J68">
+        <v>4.0322112591931056e-05</v>
+      </c>
+      <c r="K68">
+        <v>2.2204397199504756e-14</v>
+      </c>
+      <c r="L68">
+        <v>2.2204397199504756e-14</v>
+      </c>
+      <c r="M68">
+        <v>1.2860912875680151e-06</v>
+      </c>
+      <c r="N68">
+        <v>2.2204397199504756e-14</v>
+      </c>
+      <c r="O68">
+        <v>0.99995723766896794</v>
+      </c>
+      <c r="P68">
+        <v>2.2204397199504756e-14</v>
+      </c>
+      <c r="Q68">
+        <v>14</v>
+      </c>
+      <c r="R68">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="B69">
+        <v>2.2203373252431038e-14</v>
+      </c>
+      <c r="C69">
+        <v>2.2203373252431038e-14</v>
+      </c>
+      <c r="D69">
+        <v>2.2203373252431038e-14</v>
+      </c>
+      <c r="E69">
+        <v>2.2203373252431038e-14</v>
+      </c>
+      <c r="F69">
+        <v>2.2203373252431038e-14</v>
+      </c>
+      <c r="G69">
+        <v>2.2203373252431038e-14</v>
+      </c>
+      <c r="H69">
+        <v>2.2203373252431038e-14</v>
+      </c>
+      <c r="I69">
+        <v>0.00013155704399426665</v>
+      </c>
+      <c r="J69">
+        <v>2.3046725851348783e-06</v>
+      </c>
+      <c r="K69">
+        <v>2.2203373252431038e-14</v>
+      </c>
+      <c r="L69">
+        <v>2.2203373252431038e-14</v>
+      </c>
+      <c r="M69">
+        <v>0.00060220734907963944</v>
+      </c>
+      <c r="N69">
+        <v>2.2203373252431038e-14</v>
+      </c>
+      <c r="O69">
+        <v>0.99926393093409682</v>
+      </c>
+      <c r="P69">
+        <v>2.2203373252431038e-14</v>
+      </c>
+      <c r="Q69">
+        <v>14</v>
+      </c>
+      <c r="R69">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B70">
+        <v>2.2204323427465386e-14</v>
+      </c>
+      <c r="C70">
+        <v>2.2204323427465386e-14</v>
+      </c>
+      <c r="D70">
+        <v>2.2204323427465386e-14</v>
+      </c>
+      <c r="E70">
+        <v>2.2204323427465386e-14</v>
+      </c>
+      <c r="F70">
+        <v>2.2204323427465386e-14</v>
+      </c>
+      <c r="G70">
+        <v>2.2204323427465386e-14</v>
+      </c>
+      <c r="H70">
+        <v>2.2204323427465386e-14</v>
+      </c>
+      <c r="I70">
+        <v>1.2356837141152873e-05</v>
+      </c>
+      <c r="J70">
+        <v>6.8641330094330293e-06</v>
+      </c>
+      <c r="K70">
+        <v>2.2204323427465386e-14</v>
+      </c>
+      <c r="L70">
+        <v>2.2204323427465386e-14</v>
+      </c>
+      <c r="M70">
+        <v>7.3397188147998377e-05</v>
+      </c>
+      <c r="N70">
+        <v>2.2204323427465386e-14</v>
+      </c>
+      <c r="O70">
+        <v>2.2204323427465386e-14</v>
+      </c>
+      <c r="P70">
+        <v>0.99990738184145722</v>
+      </c>
+      <c r="Q70">
+        <v>15</v>
+      </c>
+      <c r="R70">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="B71">
+        <v>2.2202211253084869e-14</v>
+      </c>
+      <c r="C71">
+        <v>2.2202211253084869e-14</v>
+      </c>
+      <c r="D71">
+        <v>2.2202211253084869e-14</v>
+      </c>
+      <c r="E71">
+        <v>2.2202211253084869e-14</v>
+      </c>
+      <c r="F71">
+        <v>2.2202211253084869e-14</v>
+      </c>
+      <c r="G71">
+        <v>2.2202211253084869e-14</v>
+      </c>
+      <c r="H71">
+        <v>2.2202211253084869e-14</v>
+      </c>
+      <c r="I71">
+        <v>3.8408120671695369e-05</v>
+      </c>
+      <c r="J71">
+        <v>1.4753425331928759e-06</v>
+      </c>
+      <c r="K71">
+        <v>2.2202211253084869e-14</v>
+      </c>
+      <c r="L71">
+        <v>2.2202211253084869e-14</v>
+      </c>
+      <c r="M71">
+        <v>0.0014864242225781968</v>
+      </c>
+      <c r="N71">
+        <v>2.2202211253084869e-14</v>
+      </c>
+      <c r="O71">
+        <v>2.2202211253084869e-14</v>
+      </c>
+      <c r="P71">
+        <v>0.99847369231397276</v>
+      </c>
+      <c r="Q71">
+        <v>15</v>
+      </c>
+      <c r="R71">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="B72">
+        <v>2.2201269870908843e-14</v>
+      </c>
+      <c r="C72">
+        <v>2.2201269870908843e-14</v>
+      </c>
+      <c r="D72">
+        <v>2.2201269870908843e-14</v>
+      </c>
+      <c r="E72">
+        <v>2.2201269870908843e-14</v>
+      </c>
+      <c r="F72">
+        <v>2.2201269870908843e-14</v>
+      </c>
+      <c r="G72">
+        <v>2.2201269870908843e-14</v>
+      </c>
+      <c r="H72">
+        <v>2.2201269870908843e-14</v>
+      </c>
+      <c r="I72">
+        <v>1.0902446054340724e-05</v>
+      </c>
+      <c r="J72">
+        <v>5.245513575484555e-07</v>
+      </c>
+      <c r="K72">
+        <v>2.2201269870908843e-14</v>
+      </c>
+      <c r="L72">
+        <v>2.2201269870908843e-14</v>
+      </c>
+      <c r="M72">
+        <v>0.0021578133863340452</v>
+      </c>
+      <c r="N72">
+        <v>2.2201269870908843e-14</v>
+      </c>
+      <c r="O72">
+        <v>2.2201269870908843e-14</v>
+      </c>
+      <c r="P72">
+        <v>0.99783075961600987</v>
+      </c>
+      <c r="Q72">
+        <v>15</v>
+      </c>
+      <c r="R72">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="B73">
+        <v>2.2200627146264464e-14</v>
+      </c>
+      <c r="C73">
+        <v>2.2200627146264464e-14</v>
+      </c>
+      <c r="D73">
+        <v>2.2200627146264464e-14</v>
+      </c>
+      <c r="E73">
+        <v>2.2200627146264464e-14</v>
+      </c>
+      <c r="F73">
+        <v>2.2200627146264464e-14</v>
+      </c>
+      <c r="G73">
+        <v>2.2200627146264464e-14</v>
+      </c>
+      <c r="H73">
+        <v>2.2200627146264464e-14</v>
+      </c>
+      <c r="I73">
+        <v>1.265512467129412e-06</v>
+      </c>
+      <c r="J73">
+        <v>4.2231632410226654e-06</v>
+      </c>
+      <c r="K73">
+        <v>2.2200627146264464e-14</v>
+      </c>
+      <c r="L73">
+        <v>2.2200627146264464e-14</v>
+      </c>
+      <c r="M73">
+        <v>0.0087481535866487607</v>
+      </c>
+      <c r="N73">
+        <v>2.2200627146264464e-14</v>
+      </c>
+      <c r="O73">
+        <v>2.2200627146264464e-14</v>
+      </c>
+      <c r="P73">
+        <v>0.99124635773739889</v>
+      </c>
+      <c r="Q73">
+        <v>15</v>
+      </c>
+      <c r="R73">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R73"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.7109375" customWidth="true"/>
+    <col min="2" max="2" width="23.140625" customWidth="true"/>
+    <col min="3" max="3" width="23.140625" customWidth="true"/>
+    <col min="4" max="4" width="23.140625" customWidth="true"/>
+    <col min="5" max="5" width="23.140625" customWidth="true"/>
+    <col min="6" max="6" width="23.140625" customWidth="true"/>
+    <col min="7" max="7" width="23.140625" customWidth="true"/>
+    <col min="8" max="8" width="23.140625" customWidth="true"/>
+    <col min="9" max="9" width="23.140625" customWidth="true"/>
+    <col min="10" max="10" width="23.140625" customWidth="true"/>
+    <col min="11" max="11" width="23.140625" customWidth="true"/>
+    <col min="12" max="12" width="23.140625" customWidth="true"/>
+    <col min="13" max="13" width="23.140625" customWidth="true"/>
+    <col min="14" max="14" width="23.140625" customWidth="true"/>
+    <col min="15" max="15" width="23.140625" customWidth="true"/>
+    <col min="16" max="16" width="23.140625" customWidth="true"/>
+    <col min="17" max="17" width="10.28515625" customWidth="true"/>
+    <col min="18" max="18" width="6.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B2">
+        <v>0.99267517506091252</v>
+      </c>
+      <c r="C2">
+        <v>7.044382067474973e-06</v>
+      </c>
+      <c r="D2">
+        <v>2.2200657636872032e-14</v>
+      </c>
+      <c r="E2">
+        <v>2.2200657636872032e-14</v>
+      </c>
+      <c r="F2">
+        <v>2.1231043499206501e-07</v>
+      </c>
+      <c r="G2">
+        <v>2.2200657636872032e-14</v>
+      </c>
+      <c r="H2">
+        <v>2.2200657636872032e-14</v>
+      </c>
+      <c r="I2">
+        <v>2.2200657636872032e-14</v>
+      </c>
+      <c r="J2">
+        <v>4.5861938410054985e-05</v>
+      </c>
+      <c r="K2">
+        <v>2.2200657636872032e-14</v>
+      </c>
+      <c r="L2">
+        <v>2.2200657636872032e-14</v>
+      </c>
+      <c r="M2">
+        <v>0.0072717063079529827</v>
+      </c>
+      <c r="N2">
+        <v>2.2200657636872032e-14</v>
+      </c>
+      <c r="O2">
+        <v>2.2200657636872032e-14</v>
+      </c>
+      <c r="P2">
+        <v>2.2200657636872032e-14</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="B3">
+        <v>0.11401399109054441</v>
+      </c>
+      <c r="C3">
+        <v>0.061772521570577776</v>
+      </c>
+      <c r="D3">
+        <v>0.061730704068442319</v>
+      </c>
+      <c r="E3">
+        <v>0.061730704068442263</v>
+      </c>
+      <c r="F3">
+        <v>0.061731323219595922</v>
+      </c>
+      <c r="G3">
+        <v>0.061730704068442305</v>
+      </c>
+      <c r="H3">
+        <v>0.061730704068442305</v>
+      </c>
+      <c r="I3">
+        <v>0.061730704068442263</v>
+      </c>
+      <c r="J3">
+        <v>0.062304381575437273</v>
+      </c>
+      <c r="K3">
+        <v>0.061730704068443061</v>
+      </c>
+      <c r="L3">
+        <v>0.061730704068443061</v>
+      </c>
+      <c r="M3">
+        <v>0.082870741859417771</v>
+      </c>
+      <c r="N3">
+        <v>0.061730704068443026</v>
+      </c>
+      <c r="O3">
+        <v>0.061730704068443026</v>
+      </c>
+      <c r="P3">
+        <v>0.061730704068443026</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4">
+        <v>0.99546333159292077</v>
+      </c>
+      <c r="C4">
+        <v>1.2438629815894819e-06</v>
+      </c>
+      <c r="D4">
+        <v>2.2200595654155269e-14</v>
+      </c>
+      <c r="E4">
+        <v>2.2200595654155269e-14</v>
+      </c>
+      <c r="F4">
+        <v>2.8304969087127961e-08</v>
+      </c>
+      <c r="G4">
+        <v>2.2200595654155269e-14</v>
+      </c>
+      <c r="H4">
+        <v>2.2200595654155269e-14</v>
+      </c>
+      <c r="I4">
+        <v>2.2200595654155269e-14</v>
+      </c>
+      <c r="J4">
+        <v>1.849146352309706e-06</v>
+      </c>
+      <c r="K4">
+        <v>2.2200595654155269e-14</v>
+      </c>
+      <c r="L4">
+        <v>2.2200595654155269e-14</v>
+      </c>
+      <c r="M4">
+        <v>0.0045335470925541152</v>
+      </c>
+      <c r="N4">
+        <v>2.2200595654155269e-14</v>
+      </c>
+      <c r="O4">
+        <v>2.2200595654155269e-14</v>
+      </c>
+      <c r="P4">
+        <v>2.2200595654155269e-14</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="B5">
+        <v>0.99271422320037284</v>
+      </c>
+      <c r="C5">
+        <v>1.4644707830909321e-06</v>
+      </c>
+      <c r="D5">
+        <v>2.2200615586776863e-14</v>
+      </c>
+      <c r="E5">
+        <v>2.2200615586776863e-14</v>
+      </c>
+      <c r="F5">
+        <v>1.7636540308742363e-06</v>
+      </c>
+      <c r="G5">
+        <v>2.2200615586776863e-14</v>
+      </c>
+      <c r="H5">
+        <v>2.2200615586776863e-14</v>
+      </c>
+      <c r="I5">
+        <v>2.2200615586776863e-14</v>
+      </c>
+      <c r="J5">
+        <v>1.7393160007099218e-08</v>
+      </c>
+      <c r="K5">
+        <v>2.2200615586776863e-14</v>
+      </c>
+      <c r="L5">
+        <v>2.2200615586776863e-14</v>
+      </c>
+      <c r="M5">
+        <v>0.0072825312814311354</v>
+      </c>
+      <c r="N5">
+        <v>2.2200615586776863e-14</v>
+      </c>
+      <c r="O5">
+        <v>2.2200615586776863e-14</v>
+      </c>
+      <c r="P5">
+        <v>2.2200615586776863e-14</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="B6">
+        <v>4.4457467490791075e-12</v>
+      </c>
+      <c r="C6">
+        <v>0.86763418537013737</v>
+      </c>
+      <c r="D6">
+        <v>4.4457467490791075e-12</v>
+      </c>
+      <c r="E6">
+        <v>4.4457467490791099e-12</v>
+      </c>
+      <c r="F6">
+        <v>2.9283473647631567e-07</v>
+      </c>
+      <c r="G6">
+        <v>4.4457467490791156e-12</v>
+      </c>
+      <c r="H6">
+        <v>4.445746749079118e-12</v>
+      </c>
+      <c r="I6">
+        <v>4.4457467490791156e-12</v>
+      </c>
+      <c r="J6">
+        <v>0.052246513049467827</v>
+      </c>
+      <c r="K6">
+        <v>4.4457467490791204e-12</v>
+      </c>
+      <c r="L6">
+        <v>4.4457467490791221e-12</v>
+      </c>
+      <c r="M6">
+        <v>0.08011900869675545</v>
+      </c>
+      <c r="N6">
+        <v>4.4457467490791221e-12</v>
+      </c>
+      <c r="O6">
+        <v>4.4457467490791309e-12</v>
+      </c>
+      <c r="P6">
+        <v>4.4457467490791221e-12</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B7">
+        <v>5.6547758006421582e-12</v>
+      </c>
+      <c r="C7">
+        <v>0.92053412572810123</v>
+      </c>
+      <c r="D7">
+        <v>5.6547758006421582e-12</v>
+      </c>
+      <c r="E7">
+        <v>5.6547758006421582e-12</v>
+      </c>
+      <c r="F7">
+        <v>7.9885948119172858e-06</v>
+      </c>
+      <c r="G7">
+        <v>5.6547758006421582e-12</v>
+      </c>
+      <c r="H7">
+        <v>5.6547758006421582e-12</v>
+      </c>
+      <c r="I7">
+        <v>5.6547758006421525e-12</v>
+      </c>
+      <c r="J7">
+        <v>0.01641295492417788</v>
+      </c>
+      <c r="K7">
+        <v>5.6547758006421703e-12</v>
+      </c>
+      <c r="L7">
+        <v>5.6547758006421703e-12</v>
+      </c>
+      <c r="M7">
+        <v>0.063044930690706172</v>
+      </c>
+      <c r="N7">
+        <v>5.6547758006421703e-12</v>
+      </c>
+      <c r="O7">
+        <v>5.6547758006421703e-12</v>
+      </c>
+      <c r="P7">
+        <v>5.6547758006421703e-12</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="B8">
+        <v>6.4772417581628913e-11</v>
+      </c>
+      <c r="C8">
+        <v>0.65754128559550262</v>
+      </c>
+      <c r="D8">
+        <v>6.4772417581628938e-11</v>
+      </c>
+      <c r="E8">
+        <v>6.4772417581628938e-11</v>
+      </c>
+      <c r="F8">
+        <v>3.6274969817032277e-09</v>
+      </c>
+      <c r="G8">
+        <v>6.4772417581628977e-11</v>
+      </c>
+      <c r="H8">
+        <v>6.4772417581629003e-11</v>
+      </c>
+      <c r="I8">
+        <v>6.4772417581628938e-11</v>
+      </c>
+      <c r="J8">
+        <v>0.10546040315401178</v>
+      </c>
+      <c r="K8">
+        <v>6.4772417581628887e-11</v>
+      </c>
+      <c r="L8">
+        <v>6.477241758162899e-11</v>
+      </c>
+      <c r="M8">
+        <v>0.23699830691049228</v>
+      </c>
+      <c r="N8">
+        <v>6.477241758162899e-11</v>
+      </c>
+      <c r="O8">
+        <v>6.477241758162899e-11</v>
+      </c>
+      <c r="P8">
+        <v>6.4772417581628887e-11</v>
+      </c>
+      <c r="Q8">
+        <v>2</v>
+      </c>
+      <c r="R8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B9">
+        <v>4.3771163652824491e-12</v>
+      </c>
+      <c r="C9">
+        <v>0.94218739379028571</v>
+      </c>
+      <c r="D9">
+        <v>4.3771163652824467e-12</v>
+      </c>
+      <c r="E9">
+        <v>4.3771163652824491e-12</v>
+      </c>
+      <c r="F9">
+        <v>7.9224828799085777e-06</v>
+      </c>
+      <c r="G9">
+        <v>4.3771163652824564e-12</v>
+      </c>
+      <c r="H9">
+        <v>4.3771163652824613e-12</v>
+      </c>
+      <c r="I9">
+        <v>4.3771163652824499e-12</v>
+      </c>
+      <c r="J9">
+        <v>0.0054247774598561154</v>
+      </c>
+      <c r="K9">
+        <v>4.3771163652824362e-12</v>
+      </c>
+      <c r="L9">
+        <v>4.3771163652824273e-12</v>
+      </c>
+      <c r="M9">
+        <v>0.052379906218830409</v>
+      </c>
+      <c r="N9">
+        <v>4.3771163652824386e-12</v>
+      </c>
+      <c r="O9">
+        <v>4.3771163652824386e-12</v>
+      </c>
+      <c r="P9">
+        <v>4.3771163652824273e-12</v>
+      </c>
+      <c r="Q9">
+        <v>2</v>
+      </c>
+      <c r="R9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="B10">
+        <v>1.2306175266038757e-13</v>
+      </c>
+      <c r="C10">
+        <v>0.87640914846406759</v>
+      </c>
+      <c r="D10">
+        <v>1.2306175266038747e-13</v>
+      </c>
+      <c r="E10">
+        <v>1.2306175266038747e-13</v>
+      </c>
+      <c r="F10">
+        <v>1.1213792565001582e-09</v>
+      </c>
+      <c r="G10">
+        <v>1.2306175266038747e-13</v>
+      </c>
+      <c r="H10">
+        <v>1.2306175266038747e-13</v>
+      </c>
+      <c r="I10">
+        <v>1.2306175266038747e-13</v>
+      </c>
+      <c r="J10">
+        <v>0.12235510845239915</v>
+      </c>
+      <c r="K10">
+        <v>1.2306175266038742e-13</v>
+      </c>
+      <c r="L10">
+        <v>1.2306175266038737e-13</v>
+      </c>
+      <c r="M10">
+        <v>0.0012357419608006639</v>
+      </c>
+      <c r="N10">
+        <v>1.2306175266038739e-13</v>
+      </c>
+      <c r="O10">
+        <v>1.2306175266038742e-13</v>
+      </c>
+      <c r="P10">
+        <v>1.2306175266038742e-13</v>
+      </c>
+      <c r="Q10">
+        <v>2</v>
+      </c>
+      <c r="R10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="B11">
+        <v>2.2200637410202825e-14</v>
+      </c>
+      <c r="C11">
+        <v>2.6341016621108929e-05</v>
+      </c>
+      <c r="D11">
+        <v>0.99062529755629414</v>
+      </c>
+      <c r="E11">
+        <v>2.2200637410202825e-14</v>
+      </c>
+      <c r="F11">
+        <v>5.4139509614970876e-10</v>
+      </c>
+      <c r="G11">
+        <v>2.2200637410202825e-14</v>
+      </c>
+      <c r="H11">
+        <v>2.2200637410202825e-14</v>
+      </c>
+      <c r="I11">
+        <v>2.2200637410202825e-14</v>
+      </c>
+      <c r="J11">
+        <v>3.8578898815389738e-06</v>
+      </c>
+      <c r="K11">
+        <v>2.2200637410202825e-14</v>
+      </c>
+      <c r="L11">
+        <v>2.2200637410202825e-14</v>
+      </c>
+      <c r="M11">
+        <v>0.0093445029955861025</v>
+      </c>
+      <c r="N11">
+        <v>2.2200637410202825e-14</v>
+      </c>
+      <c r="O11">
+        <v>2.2200637410202825e-14</v>
+      </c>
+      <c r="P11">
+        <v>2.2200637410202825e-14</v>
+      </c>
+      <c r="Q11">
+        <v>3</v>
+      </c>
+      <c r="R11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="B12">
+        <v>2.2200592561415583e-14</v>
+      </c>
+      <c r="C12">
+        <v>0.00028995368473194375</v>
+      </c>
+      <c r="D12">
+        <v>0.99727646069843379</v>
+      </c>
+      <c r="E12">
+        <v>2.2200592561415583e-14</v>
+      </c>
+      <c r="F12">
+        <v>4.032943815724144e-08</v>
+      </c>
+      <c r="G12">
+        <v>2.2200592561415583e-14</v>
+      </c>
+      <c r="H12">
+        <v>2.2200592561415583e-14</v>
+      </c>
+      <c r="I12">
+        <v>2.2200592561415583e-14</v>
+      </c>
+      <c r="J12">
+        <v>8.0494454585016618e-09</v>
+      </c>
+      <c r="K12">
+        <v>2.2200592561415583e-14</v>
+      </c>
+      <c r="L12">
+        <v>2.2200592561415583e-14</v>
+      </c>
+      <c r="M12">
+        <v>0.002433537237728543</v>
+      </c>
+      <c r="N12">
+        <v>2.2200592561415583e-14</v>
+      </c>
+      <c r="O12">
+        <v>2.2200592561415583e-14</v>
+      </c>
+      <c r="P12">
+        <v>2.2200592561415583e-14</v>
+      </c>
+      <c r="Q12">
+        <v>3</v>
+      </c>
+      <c r="R12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="B13">
+        <v>2.22006580026728e-14</v>
+      </c>
+      <c r="C13">
+        <v>9.2245486311654448e-05</v>
+      </c>
+      <c r="D13">
+        <v>0.99541401130146878</v>
+      </c>
+      <c r="E13">
+        <v>2.22006580026728e-14</v>
+      </c>
+      <c r="F13">
+        <v>3.5274610142408155e-09</v>
+      </c>
+      <c r="G13">
+        <v>2.22006580026728e-14</v>
+      </c>
+      <c r="H13">
+        <v>2.22006580026728e-14</v>
+      </c>
+      <c r="I13">
+        <v>2.22006580026728e-14</v>
+      </c>
+      <c r="J13">
+        <v>1.3831082864234891e-10</v>
+      </c>
+      <c r="K13">
+        <v>2.22006580026728e-14</v>
+      </c>
+      <c r="L13">
+        <v>2.22006580026728e-14</v>
+      </c>
+      <c r="M13">
+        <v>0.0044937395462256672</v>
+      </c>
+      <c r="N13">
+        <v>2.22006580026728e-14</v>
+      </c>
+      <c r="O13">
+        <v>2.22006580026728e-14</v>
+      </c>
+      <c r="P13">
+        <v>2.22006580026728e-14</v>
+      </c>
+      <c r="Q13">
+        <v>3</v>
+      </c>
+      <c r="R13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="B14">
+        <v>2.2200676332464356e-14</v>
+      </c>
+      <c r="C14">
+        <v>0.00025409270918885958</v>
+      </c>
+      <c r="D14">
+        <v>0.99658445561671605</v>
+      </c>
+      <c r="E14">
+        <v>2.2200676332464356e-14</v>
+      </c>
+      <c r="F14">
+        <v>8.363312981125635e-09</v>
+      </c>
+      <c r="G14">
+        <v>2.2200676332464356e-14</v>
+      </c>
+      <c r="H14">
+        <v>2.2200676332464356e-14</v>
+      </c>
+      <c r="I14">
+        <v>2.2200676332464356e-14</v>
+      </c>
+      <c r="J14">
+        <v>3.6531211938755302e-09</v>
+      </c>
+      <c r="K14">
+        <v>2.2200676332464356e-14</v>
+      </c>
+      <c r="L14">
+        <v>2.2200676332464356e-14</v>
+      </c>
+      <c r="M14">
+        <v>0.0031614396574390479</v>
+      </c>
+      <c r="N14">
+        <v>2.2200676332464356e-14</v>
+      </c>
+      <c r="O14">
+        <v>2.2200676332464356e-14</v>
+      </c>
+      <c r="P14">
+        <v>2.2200676332464356e-14</v>
+      </c>
+      <c r="Q14">
+        <v>3</v>
+      </c>
+      <c r="R14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="B15">
+        <v>2.2203007324412614e-14</v>
+      </c>
+      <c r="C15">
+        <v>0.00013011113600438958</v>
+      </c>
+      <c r="D15">
+        <v>0.99901547353228237</v>
+      </c>
+      <c r="E15">
+        <v>2.2203007324412614e-14</v>
+      </c>
+      <c r="F15">
+        <v>3.1087165747934668e-09</v>
+      </c>
+      <c r="G15">
+        <v>2.2203007324412614e-14</v>
+      </c>
+      <c r="H15">
+        <v>2.2203007324412614e-14</v>
+      </c>
+      <c r="I15">
+        <v>2.2203007324412614e-14</v>
+      </c>
+      <c r="J15">
+        <v>1.5101705691121322e-07</v>
+      </c>
+      <c r="K15">
+        <v>2.2203007324412614e-14</v>
+      </c>
+      <c r="L15">
+        <v>2.2203007324412614e-14</v>
+      </c>
+      <c r="M15">
+        <v>0.00085426120571789567</v>
+      </c>
+      <c r="N15">
+        <v>2.2203007324412614e-14</v>
+      </c>
+      <c r="O15">
+        <v>2.2203007324412614e-14</v>
+      </c>
+      <c r="P15">
+        <v>2.2203007324412614e-14</v>
+      </c>
+      <c r="Q15">
+        <v>3</v>
+      </c>
+      <c r="R15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="B16">
+        <v>2.2200143159185904e-14</v>
+      </c>
+      <c r="C16">
+        <v>1.9573847553766496e-05</v>
+      </c>
+      <c r="D16">
+        <v>0.94992506006679012</v>
+      </c>
+      <c r="E16">
+        <v>2.2200143159185904e-14</v>
+      </c>
+      <c r="F16">
+        <v>4.9439523624052235e-12</v>
+      </c>
+      <c r="G16">
+        <v>2.2200143159185904e-14</v>
+      </c>
+      <c r="H16">
+        <v>2.2200143159185904e-14</v>
+      </c>
+      <c r="I16">
+        <v>2.2200143159185904e-14</v>
+      </c>
+      <c r="J16">
+        <v>4.6880190221300553e-07</v>
+      </c>
+      <c r="K16">
+        <v>2.2200143159185904e-14</v>
+      </c>
+      <c r="L16">
+        <v>2.2200143159185904e-14</v>
+      </c>
+      <c r="M16">
+        <v>0.050054897278587925</v>
+      </c>
+      <c r="N16">
+        <v>2.2200143159185904e-14</v>
+      </c>
+      <c r="O16">
+        <v>2.2200143159185904e-14</v>
+      </c>
+      <c r="P16">
+        <v>2.2200143159185904e-14</v>
+      </c>
+      <c r="Q16">
+        <v>3</v>
+      </c>
+      <c r="R16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="B17">
+        <v>2.2203180610765532e-14</v>
+      </c>
+      <c r="C17">
+        <v>0.00011030915891505709</v>
+      </c>
+      <c r="D17">
+        <v>0.99913317688895686</v>
+      </c>
+      <c r="E17">
+        <v>2.2203180610765532e-14</v>
+      </c>
+      <c r="F17">
+        <v>4.5456314381932341e-07</v>
+      </c>
+      <c r="G17">
+        <v>2.2203180610765532e-14</v>
+      </c>
+      <c r="H17">
+        <v>2.2203180610765532e-14</v>
+      </c>
+      <c r="I17">
+        <v>2.2203180610765532e-14</v>
+      </c>
+      <c r="J17">
+        <v>2.6109481294408429e-07</v>
+      </c>
+      <c r="K17">
+        <v>2.2203180610765532e-14</v>
+      </c>
+      <c r="L17">
+        <v>2.2203180610765532e-14</v>
+      </c>
+      <c r="M17">
+        <v>0.00075579829394940346</v>
+      </c>
+      <c r="N17">
+        <v>2.2203180610765532e-14</v>
+      </c>
+      <c r="O17">
+        <v>2.2203180610765532e-14</v>
+      </c>
+      <c r="P17">
+        <v>2.2203180610765532e-14</v>
+      </c>
+      <c r="Q17">
+        <v>3</v>
+      </c>
+      <c r="R17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="B18">
+        <v>2.220059203162721e-14</v>
+      </c>
+      <c r="C18">
+        <v>4.097514244867411e-13</v>
+      </c>
+      <c r="D18">
+        <v>2.220059203162721e-14</v>
+      </c>
+      <c r="E18">
+        <v>0.99549026128938889</v>
+      </c>
+      <c r="F18">
+        <v>2.220059203162721e-14</v>
+      </c>
+      <c r="G18">
+        <v>2.220059203162721e-14</v>
+      </c>
+      <c r="H18">
+        <v>2.220059203162721e-14</v>
+      </c>
+      <c r="I18">
+        <v>2.220059203162721e-14</v>
+      </c>
+      <c r="J18">
+        <v>2.9955057856169829e-07</v>
+      </c>
+      <c r="K18">
+        <v>2.220059203162721e-14</v>
+      </c>
+      <c r="L18">
+        <v>2.220059203162721e-14</v>
+      </c>
+      <c r="M18">
+        <v>0.0045094391593785126</v>
+      </c>
+      <c r="N18">
+        <v>2.220059203162721e-14</v>
+      </c>
+      <c r="O18">
+        <v>2.220059203162721e-14</v>
+      </c>
+      <c r="P18">
+        <v>2.220059203162721e-14</v>
+      </c>
+      <c r="Q18">
+        <v>4</v>
+      </c>
+      <c r="R18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B19">
+        <v>2.2202384881602715e-14</v>
+      </c>
+      <c r="C19">
+        <v>2.2202384881602715e-14</v>
+      </c>
+      <c r="D19">
+        <v>2.2202384881602715e-14</v>
+      </c>
+      <c r="E19">
+        <v>0.99859200627655342</v>
+      </c>
+      <c r="F19">
+        <v>2.2202384881602715e-14</v>
+      </c>
+      <c r="G19">
+        <v>2.2202384881602715e-14</v>
+      </c>
+      <c r="H19">
+        <v>2.2202384881602715e-14</v>
+      </c>
+      <c r="I19">
+        <v>2.2202384881602715e-14</v>
+      </c>
+      <c r="J19">
+        <v>0.00013349980070814871</v>
+      </c>
+      <c r="K19">
+        <v>2.2202384881602715e-14</v>
+      </c>
+      <c r="L19">
+        <v>2.2202384881602715e-14</v>
+      </c>
+      <c r="M19">
+        <v>0.001274493922471955</v>
+      </c>
+      <c r="N19">
+        <v>2.2202384881602715e-14</v>
+      </c>
+      <c r="O19">
+        <v>2.2202384881602715e-14</v>
+      </c>
+      <c r="P19">
+        <v>2.2202384881602715e-14</v>
+      </c>
+      <c r="Q19">
+        <v>4</v>
+      </c>
+      <c r="R19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="B20">
+        <v>2.2204161777405236e-14</v>
+      </c>
+      <c r="C20">
+        <v>4.5900436434636032e-14</v>
+      </c>
+      <c r="D20">
+        <v>2.2204161777405236e-14</v>
+      </c>
+      <c r="E20">
+        <v>0.99979808601407827</v>
+      </c>
+      <c r="F20">
+        <v>2.2204161777405236e-14</v>
+      </c>
+      <c r="G20">
+        <v>2.2204161777405236e-14</v>
+      </c>
+      <c r="H20">
+        <v>2.2204161777405236e-14</v>
+      </c>
+      <c r="I20">
+        <v>2.2204161777405236e-14</v>
+      </c>
+      <c r="J20">
+        <v>2.6677335271150348e-06</v>
+      </c>
+      <c r="K20">
+        <v>2.2204161777405236e-14</v>
+      </c>
+      <c r="L20">
+        <v>2.2204161777405236e-14</v>
+      </c>
+      <c r="M20">
+        <v>0.00019924625210448221</v>
+      </c>
+      <c r="N20">
+        <v>2.2204161777405236e-14</v>
+      </c>
+      <c r="O20">
+        <v>2.2204161777405236e-14</v>
+      </c>
+      <c r="P20">
+        <v>2.2204161777405236e-14</v>
+      </c>
+      <c r="Q20">
+        <v>4</v>
+      </c>
+      <c r="R20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="B21">
+        <v>2.2200788060530751e-14</v>
+      </c>
+      <c r="C21">
+        <v>4.315352695320994e-14</v>
+      </c>
+      <c r="D21">
+        <v>2.2200788060530751e-14</v>
+      </c>
+      <c r="E21">
+        <v>0.99612162966724627</v>
+      </c>
+      <c r="F21">
+        <v>2.2200788060530751e-14</v>
+      </c>
+      <c r="G21">
+        <v>2.2200788060530751e-14</v>
+      </c>
+      <c r="H21">
+        <v>2.2200788060530751e-14</v>
+      </c>
+      <c r="I21">
+        <v>2.2200788060530751e-14</v>
+      </c>
+      <c r="J21">
+        <v>0.00039022929863350472</v>
+      </c>
+      <c r="K21">
+        <v>2.2200788060530751e-14</v>
+      </c>
+      <c r="L21">
+        <v>2.2200788060530751e-14</v>
+      </c>
+      <c r="M21">
+        <v>0.003488141033832725</v>
+      </c>
+      <c r="N21">
+        <v>2.2200788060530751e-14</v>
+      </c>
+      <c r="O21">
+        <v>2.2200788060530751e-14</v>
+      </c>
+      <c r="P21">
+        <v>2.2200788060530751e-14</v>
+      </c>
+      <c r="Q21">
+        <v>4</v>
+      </c>
+      <c r="R21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="B22">
+        <v>2.2203449985216504e-14</v>
+      </c>
+      <c r="C22">
+        <v>5.3155466937648857e-14</v>
+      </c>
+      <c r="D22">
+        <v>2.2203449985216504e-14</v>
+      </c>
+      <c r="E22">
+        <v>0.99931598481810613</v>
+      </c>
+      <c r="F22">
+        <v>2.2203449985216504e-14</v>
+      </c>
+      <c r="G22">
+        <v>2.2203449985216504e-14</v>
+      </c>
+      <c r="H22">
+        <v>2.2203449985216504e-14</v>
+      </c>
+      <c r="I22">
+        <v>2.2203449985216504e-14</v>
+      </c>
+      <c r="J22">
+        <v>9.1967416939377306e-06</v>
+      </c>
+      <c r="K22">
+        <v>2.2203449985216504e-14</v>
+      </c>
+      <c r="L22">
+        <v>2.2203449985216504e-14</v>
+      </c>
+      <c r="M22">
+        <v>0.00067481843990237753</v>
+      </c>
+      <c r="N22">
+        <v>2.2203449985216504e-14</v>
+      </c>
+      <c r="O22">
+        <v>2.2203449985216504e-14</v>
+      </c>
+      <c r="P22">
+        <v>2.2203449985216504e-14</v>
+      </c>
+      <c r="Q22">
+        <v>4</v>
+      </c>
+      <c r="R22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="B23">
+        <v>2.2200644634088021e-14</v>
+      </c>
+      <c r="C23">
+        <v>2.2200644634088021e-14</v>
+      </c>
+      <c r="D23">
+        <v>2.2200644634088021e-14</v>
+      </c>
+      <c r="E23">
+        <v>0.98783465858633612</v>
+      </c>
+      <c r="F23">
+        <v>2.2200644634088021e-14</v>
+      </c>
+      <c r="G23">
+        <v>2.2200644634088021e-14</v>
+      </c>
+      <c r="H23">
+        <v>2.2200644634088021e-14</v>
+      </c>
+      <c r="I23">
+        <v>2.2200644634088021e-14</v>
+      </c>
+      <c r="J23">
+        <v>6.8111391534984848e-06</v>
+      </c>
+      <c r="K23">
+        <v>2.2200644634088021e-14</v>
+      </c>
+      <c r="L23">
+        <v>2.2200644634088021e-14</v>
+      </c>
+      <c r="M23">
+        <v>0.012158530274243932</v>
+      </c>
+      <c r="N23">
+        <v>2.2200644634088021e-14</v>
+      </c>
+      <c r="O23">
+        <v>2.2200644634088021e-14</v>
+      </c>
+      <c r="P23">
+        <v>2.2200644634088021e-14</v>
+      </c>
+      <c r="Q23">
+        <v>4</v>
+      </c>
+      <c r="R23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="B24">
+        <v>2.2201922537160136e-14</v>
+      </c>
+      <c r="C24">
+        <v>2.2201922537160136e-14</v>
+      </c>
+      <c r="D24">
+        <v>2.2201922537160136e-14</v>
+      </c>
+      <c r="E24">
+        <v>0.99827677045708629</v>
+      </c>
+      <c r="F24">
+        <v>2.2201922537160136e-14</v>
+      </c>
+      <c r="G24">
+        <v>2.2201922537160136e-14</v>
+      </c>
+      <c r="H24">
+        <v>2.2201922537160136e-14</v>
+      </c>
+      <c r="I24">
+        <v>2.2201922537160136e-14</v>
+      </c>
+      <c r="J24">
+        <v>4.815000373372293e-06</v>
+      </c>
+      <c r="K24">
+        <v>2.2201922537160136e-14</v>
+      </c>
+      <c r="L24">
+        <v>2.2201922537160136e-14</v>
+      </c>
+      <c r="M24">
+        <v>0.0017184145422738922</v>
+      </c>
+      <c r="N24">
+        <v>2.2201922537160136e-14</v>
+      </c>
+      <c r="O24">
+        <v>2.2201922537160136e-14</v>
+      </c>
+      <c r="P24">
+        <v>2.2201922537160136e-14</v>
+      </c>
+      <c r="Q24">
+        <v>4</v>
+      </c>
+      <c r="R24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="B25">
+        <v>2.2200661379436444e-14</v>
+      </c>
+      <c r="C25">
+        <v>6.9802842034330574e-05</v>
+      </c>
+      <c r="D25">
+        <v>2.2200661379436444e-14</v>
+      </c>
+      <c r="E25">
+        <v>2.2200661379436444e-14</v>
+      </c>
+      <c r="F25">
+        <v>0.99058501566385604</v>
+      </c>
+      <c r="G25">
+        <v>2.2200661379436444e-14</v>
+      </c>
+      <c r="H25">
+        <v>2.2200661379436444e-14</v>
+      </c>
+      <c r="I25">
+        <v>2.2200661379436444e-14</v>
+      </c>
+      <c r="J25">
+        <v>2.8879014814557779e-06</v>
+      </c>
+      <c r="K25">
+        <v>2.2200661379436444e-14</v>
+      </c>
+      <c r="L25">
+        <v>2.2200661379436444e-14</v>
+      </c>
+      <c r="M25">
+        <v>0.0093422935923837581</v>
+      </c>
+      <c r="N25">
+        <v>2.2200661379436444e-14</v>
+      </c>
+      <c r="O25">
+        <v>2.2200661379436444e-14</v>
+      </c>
+      <c r="P25">
+        <v>2.2200661379436444e-14</v>
+      </c>
+      <c r="Q25">
+        <v>5</v>
+      </c>
+      <c r="R25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="B26">
+        <v>2.225476767709868e-14</v>
+      </c>
+      <c r="C26">
+        <v>0.00044004074032266688</v>
+      </c>
+      <c r="D26">
+        <v>2.225476767709868e-14</v>
+      </c>
+      <c r="E26">
+        <v>2.225476767709868e-14</v>
+      </c>
+      <c r="F26">
+        <v>0.9984637989504449</v>
+      </c>
+      <c r="G26">
+        <v>2.225476767709868e-14</v>
+      </c>
+      <c r="H26">
+        <v>2.225476767709868e-14</v>
+      </c>
+      <c r="I26">
+        <v>2.225476767709868e-14</v>
+      </c>
+      <c r="J26">
+        <v>8.7744975833504207e-06</v>
+      </c>
+      <c r="K26">
+        <v>2.2254767677098683e-14</v>
+      </c>
+      <c r="L26">
+        <v>2.2254767677098683e-14</v>
+      </c>
+      <c r="M26">
+        <v>0.0010873858114046871</v>
+      </c>
+      <c r="N26">
+        <v>2.2254767677098683e-14</v>
+      </c>
+      <c r="O26">
+        <v>2.2254767677098683e-14</v>
+      </c>
+      <c r="P26">
+        <v>2.2254767677098683e-14</v>
+      </c>
+      <c r="Q26">
+        <v>5</v>
+      </c>
+      <c r="R26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="B27">
+        <v>2.2200636753436881e-14</v>
+      </c>
+      <c r="C27">
+        <v>0.00012832197862099187</v>
+      </c>
+      <c r="D27">
+        <v>2.2200636753436881e-14</v>
+      </c>
+      <c r="E27">
+        <v>2.2200636753436881e-14</v>
+      </c>
+      <c r="F27">
+        <v>0.99651181493009233</v>
+      </c>
+      <c r="G27">
+        <v>2.2200636753436881e-14</v>
+      </c>
+      <c r="H27">
+        <v>2.2200636753436881e-14</v>
+      </c>
+      <c r="I27">
+        <v>2.2200636753436881e-14</v>
+      </c>
+      <c r="J27">
+        <v>3.120785625425231e-06</v>
+      </c>
+      <c r="K27">
+        <v>2.2200636753436881e-14</v>
+      </c>
+      <c r="L27">
+        <v>2.2200636753436881e-14</v>
+      </c>
+      <c r="M27">
+        <v>0.0033567423054169077</v>
+      </c>
+      <c r="N27">
+        <v>2.2200636753436881e-14</v>
+      </c>
+      <c r="O27">
+        <v>2.2200636753436881e-14</v>
+      </c>
+      <c r="P27">
+        <v>2.2200636753436881e-14</v>
+      </c>
+      <c r="Q27">
+        <v>5</v>
+      </c>
+      <c r="R27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="B28">
+        <v>2.2200655313271172e-14</v>
+      </c>
+      <c r="C28">
+        <v>7.0903264314593997e-05</v>
+      </c>
+      <c r="D28">
+        <v>2.2200655313271172e-14</v>
+      </c>
+      <c r="E28">
+        <v>2.2200655313271172e-14</v>
+      </c>
+      <c r="F28">
+        <v>0.00022850453850673189</v>
+      </c>
+      <c r="G28">
+        <v>0.99692604129015283</v>
+      </c>
+      <c r="H28">
+        <v>2.2200655313271172e-14</v>
+      </c>
+      <c r="I28">
+        <v>2.2200655313271172e-14</v>
+      </c>
+      <c r="J28">
+        <v>1.910632682836644e-05</v>
+      </c>
+      <c r="K28">
+        <v>2.2200655313271172e-14</v>
+      </c>
+      <c r="L28">
+        <v>2.2200655313271172e-14</v>
+      </c>
+      <c r="M28">
+        <v>0.0027554445799754298</v>
+      </c>
+      <c r="N28">
+        <v>2.2200655313271172e-14</v>
+      </c>
+      <c r="O28">
+        <v>2.2200655313271172e-14</v>
+      </c>
+      <c r="P28">
+        <v>2.2200655313271172e-14</v>
+      </c>
+      <c r="Q28">
+        <v>6</v>
+      </c>
+      <c r="R28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="B29">
+        <v>2.2201206884465271e-14</v>
+      </c>
+      <c r="C29">
+        <v>0.00016125751645591641</v>
+      </c>
+      <c r="D29">
+        <v>2.2201206884465271e-14</v>
+      </c>
+      <c r="E29">
+        <v>2.2201206884465271e-14</v>
+      </c>
+      <c r="F29">
+        <v>0.000240308762486924</v>
+      </c>
+      <c r="G29">
+        <v>0.99538649208022789</v>
+      </c>
+      <c r="H29">
+        <v>2.2201206884465271e-14</v>
+      </c>
+      <c r="I29">
+        <v>2.2201206884465271e-14</v>
+      </c>
+      <c r="J29">
+        <v>0.00053177508525132809</v>
+      </c>
+      <c r="K29">
+        <v>2.2201206884465271e-14</v>
+      </c>
+      <c r="L29">
+        <v>2.2201206884465271e-14</v>
+      </c>
+      <c r="M29">
+        <v>0.0036801665553559673</v>
+      </c>
+      <c r="N29">
+        <v>2.2201206884465271e-14</v>
+      </c>
+      <c r="O29">
+        <v>2.2201206884465271e-14</v>
+      </c>
+      <c r="P29">
+        <v>2.2201206884465271e-14</v>
+      </c>
+      <c r="Q29">
+        <v>6</v>
+      </c>
+      <c r="R29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="B30">
+        <v>2.2200774370622563e-14</v>
+      </c>
+      <c r="C30">
+        <v>1.1510155540606394e-05</v>
+      </c>
+      <c r="D30">
+        <v>2.2200774370622563e-14</v>
+      </c>
+      <c r="E30">
+        <v>2.2200774370622563e-14</v>
+      </c>
+      <c r="F30">
+        <v>0.00061135142643645136</v>
+      </c>
+      <c r="G30">
+        <v>0.9879102757665682</v>
+      </c>
+      <c r="H30">
+        <v>2.2200774370622563e-14</v>
+      </c>
+      <c r="I30">
+        <v>2.2200774370622563e-14</v>
+      </c>
+      <c r="J30">
+        <v>5.0225941660698345e-08</v>
+      </c>
+      <c r="K30">
+        <v>2.2200774370622563e-14</v>
+      </c>
+      <c r="L30">
+        <v>2.2200774370622563e-14</v>
+      </c>
+      <c r="M30">
+        <v>0.01146681242529104</v>
+      </c>
+      <c r="N30">
+        <v>2.2200774370622563e-14</v>
+      </c>
+      <c r="O30">
+        <v>2.2200774370622563e-14</v>
+      </c>
+      <c r="P30">
+        <v>2.2200774370622563e-14</v>
+      </c>
+      <c r="Q30">
+        <v>6</v>
+      </c>
+      <c r="R30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="B31">
+        <v>2.2200613147861708e-14</v>
+      </c>
+      <c r="C31">
+        <v>1.817171666688889e-06</v>
+      </c>
+      <c r="D31">
+        <v>2.2200613147861708e-14</v>
+      </c>
+      <c r="E31">
+        <v>2.2200613147861708e-14</v>
+      </c>
+      <c r="F31">
+        <v>1.5247374466112925e-05</v>
+      </c>
+      <c r="G31">
+        <v>0.99420113324066506</v>
+      </c>
+      <c r="H31">
+        <v>2.2200613147861708e-14</v>
+      </c>
+      <c r="I31">
+        <v>2.2200613147861708e-14</v>
+      </c>
+      <c r="J31">
+        <v>3.915944992522051e-11</v>
+      </c>
+      <c r="K31">
+        <v>2.2200613147861708e-14</v>
+      </c>
+      <c r="L31">
+        <v>2.2200613147861708e-14</v>
+      </c>
+      <c r="M31">
+        <v>0.0057818021738206705</v>
+      </c>
+      <c r="N31">
+        <v>2.2200613147861708e-14</v>
+      </c>
+      <c r="O31">
+        <v>2.2200613147861708e-14</v>
+      </c>
+      <c r="P31">
+        <v>2.2200613147861708e-14</v>
+      </c>
+      <c r="Q31">
+        <v>6</v>
+      </c>
+      <c r="R31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="B32">
+        <v>2.2201483163485573e-14</v>
+      </c>
+      <c r="C32">
+        <v>9.1457239261228101e-05</v>
+      </c>
+      <c r="D32">
+        <v>2.2201483163485573e-14</v>
+      </c>
+      <c r="E32">
+        <v>2.2201483163485573e-14</v>
+      </c>
+      <c r="F32">
+        <v>0.0019916267528545272</v>
+      </c>
+      <c r="G32">
+        <v>0.995529117845942</v>
+      </c>
+      <c r="H32">
+        <v>2.2201483163485573e-14</v>
+      </c>
+      <c r="I32">
+        <v>2.2201483163485573e-14</v>
+      </c>
+      <c r="J32">
+        <v>2.2510061757232791e-05</v>
+      </c>
+      <c r="K32">
+        <v>2.2201483163485573e-14</v>
+      </c>
+      <c r="L32">
+        <v>2.2201483163485573e-14</v>
+      </c>
+      <c r="M32">
+        <v>0.0023652880999631212</v>
+      </c>
+      <c r="N32">
+        <v>2.2201483163485573e-14</v>
+      </c>
+      <c r="O32">
+        <v>2.2201483163485573e-14</v>
+      </c>
+      <c r="P32">
+        <v>2.2201483163485573e-14</v>
+      </c>
+      <c r="Q32">
+        <v>6</v>
+      </c>
+      <c r="R32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="B33">
+        <v>2.2200990406091045e-14</v>
+      </c>
+      <c r="C33">
+        <v>0.0012441621495723094</v>
+      </c>
+      <c r="D33">
+        <v>2.2200990406091045e-14</v>
+      </c>
+      <c r="E33">
+        <v>2.2200990406091045e-14</v>
+      </c>
+      <c r="F33">
+        <v>9.2268646249335624e-07</v>
+      </c>
+      <c r="G33">
+        <v>2.2200990406091045e-14</v>
+      </c>
+      <c r="H33">
+        <v>0.99647395531992644</v>
+      </c>
+      <c r="I33">
+        <v>2.2200990406091045e-14</v>
+      </c>
+      <c r="J33">
+        <v>1.2120985598118007e-11</v>
+      </c>
+      <c r="K33">
+        <v>2.2200990406091045e-14</v>
+      </c>
+      <c r="L33">
+        <v>2.2200990406091045e-14</v>
+      </c>
+      <c r="M33">
+        <v>0.0022809598316957361</v>
+      </c>
+      <c r="N33">
+        <v>2.2200990406091045e-14</v>
+      </c>
+      <c r="O33">
+        <v>2.2200990406091045e-14</v>
+      </c>
+      <c r="P33">
+        <v>2.2200990406091045e-14</v>
+      </c>
+      <c r="Q33">
+        <v>7</v>
+      </c>
+      <c r="R33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="B34">
+        <v>2.2201008673232458e-14</v>
+      </c>
+      <c r="C34">
+        <v>0.002039167392765882</v>
+      </c>
+      <c r="D34">
+        <v>2.2201008673232458e-14</v>
+      </c>
+      <c r="E34">
+        <v>2.2201008673232458e-14</v>
+      </c>
+      <c r="F34">
+        <v>1.4694054618238138e-09</v>
+      </c>
+      <c r="G34">
+        <v>2.2201008673232458e-14</v>
+      </c>
+      <c r="H34">
+        <v>0.9976519265111895</v>
+      </c>
+      <c r="I34">
+        <v>2.2201008673232458e-14</v>
+      </c>
+      <c r="J34">
+        <v>5.3062404129946747e-12</v>
+      </c>
+      <c r="K34">
+        <v>2.2201008673232458e-14</v>
+      </c>
+      <c r="L34">
+        <v>2.2201008673232458e-14</v>
+      </c>
+      <c r="M34">
+        <v>0.00030890462111080497</v>
+      </c>
+      <c r="N34">
+        <v>2.2201008673232458e-14</v>
+      </c>
+      <c r="O34">
+        <v>2.2201008673232458e-14</v>
+      </c>
+      <c r="P34">
+        <v>2.2201008673232458e-14</v>
+      </c>
+      <c r="Q34">
+        <v>7</v>
+      </c>
+      <c r="R34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="B35">
+        <v>2.2200746846085454e-14</v>
+      </c>
+      <c r="C35">
+        <v>0.0026040386090436323</v>
+      </c>
+      <c r="D35">
+        <v>2.2200746846085454e-14</v>
+      </c>
+      <c r="E35">
+        <v>2.2200746846085454e-14</v>
+      </c>
+      <c r="F35">
+        <v>6.0418398053355181e-08</v>
+      </c>
+      <c r="G35">
+        <v>2.2200746846085454e-14</v>
+      </c>
+      <c r="H35">
+        <v>0.99678994708726609</v>
+      </c>
+      <c r="I35">
+        <v>2.2200746846085454e-14</v>
+      </c>
+      <c r="J35">
+        <v>9.4050606090676587e-13</v>
+      </c>
+      <c r="K35">
+        <v>2.2200746846085454e-14</v>
+      </c>
+      <c r="L35">
+        <v>2.2200746846085454e-14</v>
+      </c>
+      <c r="M35">
+        <v>0.0006059538841297424</v>
+      </c>
+      <c r="N35">
+        <v>2.2200746846085454e-14</v>
+      </c>
+      <c r="O35">
+        <v>2.2200746846085454e-14</v>
+      </c>
+      <c r="P35">
+        <v>2.2200746846085454e-14</v>
+      </c>
+      <c r="Q35">
+        <v>7</v>
+      </c>
+      <c r="R35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="B36">
+        <v>0.061035939743128993</v>
+      </c>
+      <c r="C36">
+        <v>0.06609822336895449</v>
+      </c>
+      <c r="D36">
+        <v>0.061035939743128993</v>
+      </c>
+      <c r="E36">
+        <v>0.061035939743128993</v>
+      </c>
+      <c r="F36">
+        <v>0.061053619195103562</v>
+      </c>
+      <c r="G36">
+        <v>0.061035939743129042</v>
+      </c>
+      <c r="H36">
+        <v>0.11008303005527054</v>
+      </c>
+      <c r="I36">
+        <v>0.061035939743128993</v>
+      </c>
+      <c r="J36">
+        <v>0.061035939744337651</v>
+      </c>
+      <c r="K36">
+        <v>0.06103593974312907</v>
+      </c>
+      <c r="L36">
+        <v>0.06103593974312907</v>
+      </c>
+      <c r="M36">
+        <v>0.091369790205043572</v>
+      </c>
+      <c r="N36">
+        <v>0.061035939743128993</v>
+      </c>
+      <c r="O36">
+        <v>0.061035939743128993</v>
+      </c>
+      <c r="P36">
+        <v>0.061035939743128993</v>
+      </c>
+      <c r="Q36">
+        <v>7</v>
+      </c>
+      <c r="R36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="B37">
+        <v>2.2200648287905029e-14</v>
+      </c>
+      <c r="C37">
+        <v>0.0022258403547454815</v>
+      </c>
+      <c r="D37">
+        <v>2.2200648287905029e-14</v>
+      </c>
+      <c r="E37">
+        <v>2.2200648287905029e-14</v>
+      </c>
+      <c r="F37">
+        <v>7.0326991535442514e-09</v>
+      </c>
+      <c r="G37">
+        <v>2.2200648287905029e-14</v>
+      </c>
+      <c r="H37">
+        <v>0.99715111225168684</v>
+      </c>
+      <c r="I37">
+        <v>2.2200648287905029e-14</v>
+      </c>
+      <c r="J37">
+        <v>2.0493904399109198e-11</v>
+      </c>
+      <c r="K37">
+        <v>2.2200648287905029e-14</v>
+      </c>
+      <c r="L37">
+        <v>2.2200648287905029e-14</v>
+      </c>
+      <c r="M37">
+        <v>0.00062304034015261479</v>
+      </c>
+      <c r="N37">
+        <v>2.2200648287905029e-14</v>
+      </c>
+      <c r="O37">
+        <v>2.2200648287905029e-14</v>
+      </c>
+      <c r="P37">
+        <v>2.2200648287905029e-14</v>
+      </c>
+      <c r="Q37">
+        <v>7</v>
+      </c>
+      <c r="R37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="B38">
+        <v>2.2200705108592417e-14</v>
+      </c>
+      <c r="C38">
+        <v>0.02965759045563238</v>
+      </c>
+      <c r="D38">
+        <v>2.2200705108592417e-14</v>
+      </c>
+      <c r="E38">
+        <v>2.2200705108592417e-14</v>
+      </c>
+      <c r="F38">
+        <v>2.6105455200563175e-09</v>
+      </c>
+      <c r="G38">
+        <v>2.2200705108592417e-14</v>
+      </c>
+      <c r="H38">
+        <v>2.2200705108592417e-14</v>
+      </c>
+      <c r="I38">
+        <v>2.2200705108592417e-14</v>
+      </c>
+      <c r="J38">
+        <v>0.97024152159791588</v>
+      </c>
+      <c r="K38">
+        <v>2.2200705108592417e-14</v>
+      </c>
+      <c r="L38">
+        <v>2.2200705108592417e-14</v>
+      </c>
+      <c r="M38">
+        <v>0.00010088533566188284</v>
+      </c>
+      <c r="N38">
+        <v>2.2200705108592417e-14</v>
+      </c>
+      <c r="O38">
+        <v>2.2200705108592417e-14</v>
+      </c>
+      <c r="P38">
+        <v>2.2200705108592417e-14</v>
+      </c>
+      <c r="Q38">
+        <v>9</v>
+      </c>
+      <c r="R38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="B39">
+        <v>2.2202928848652244e-14</v>
+      </c>
+      <c r="C39">
+        <v>0.0046921790500613781</v>
+      </c>
+      <c r="D39">
+        <v>2.2202928848652244e-14</v>
+      </c>
+      <c r="E39">
+        <v>2.2202928848652244e-14</v>
+      </c>
+      <c r="F39">
+        <v>1.2485938542990204e-13</v>
+      </c>
+      <c r="G39">
+        <v>2.2202928848652244e-14</v>
+      </c>
+      <c r="H39">
+        <v>2.2202928848652244e-14</v>
+      </c>
+      <c r="I39">
+        <v>0.98254023886498354</v>
+      </c>
+      <c r="J39">
+        <v>3.8593504303047461e-09</v>
+      </c>
+      <c r="K39">
+        <v>2.2202928848652244e-14</v>
+      </c>
+      <c r="L39">
+        <v>2.2202928848652244e-14</v>
+      </c>
+      <c r="M39">
+        <v>0.012767578225257807</v>
+      </c>
+      <c r="N39">
+        <v>2.2202928848652244e-14</v>
+      </c>
+      <c r="O39">
+        <v>2.2202928848652244e-14</v>
+      </c>
+      <c r="P39">
+        <v>2.2202928848652244e-14</v>
+      </c>
+      <c r="Q39">
+        <v>8</v>
+      </c>
+      <c r="R39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="B40">
+        <v>2.220092792974187e-14</v>
+      </c>
+      <c r="C40">
+        <v>0.044453615416314221</v>
+      </c>
+      <c r="D40">
+        <v>2.220092792974187e-14</v>
+      </c>
+      <c r="E40">
+        <v>2.220092792974187e-14</v>
+      </c>
+      <c r="F40">
+        <v>1.8134186303931342e-08</v>
+      </c>
+      <c r="G40">
+        <v>2.220092792974187e-14</v>
+      </c>
+      <c r="H40">
+        <v>2.220092792974187e-14</v>
+      </c>
+      <c r="I40">
+        <v>2.220092792974187e-14</v>
+      </c>
+      <c r="J40">
+        <v>0.95536441213194934</v>
+      </c>
+      <c r="K40">
+        <v>2.220092792974187e-14</v>
+      </c>
+      <c r="L40">
+        <v>2.220092792974187e-14</v>
+      </c>
+      <c r="M40">
+        <v>0.00018195431730591655</v>
+      </c>
+      <c r="N40">
+        <v>2.220092792974187e-14</v>
+      </c>
+      <c r="O40">
+        <v>2.220092792974187e-14</v>
+      </c>
+      <c r="P40">
+        <v>2.220092792974187e-14</v>
+      </c>
+      <c r="Q40">
+        <v>9</v>
+      </c>
+      <c r="R40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="B41">
+        <v>2.2202241777066131e-14</v>
+      </c>
+      <c r="C41">
+        <v>0.008537771844981841</v>
+      </c>
+      <c r="D41">
+        <v>2.2202241777066131e-14</v>
+      </c>
+      <c r="E41">
+        <v>2.2202241777066131e-14</v>
+      </c>
+      <c r="F41">
+        <v>3.4638058906148092e-08</v>
+      </c>
+      <c r="G41">
+        <v>2.2202241777066131e-14</v>
+      </c>
+      <c r="H41">
+        <v>2.2202241777066131e-14</v>
+      </c>
+      <c r="I41">
+        <v>0.98882973585589373</v>
+      </c>
+      <c r="J41">
+        <v>5.1462898488930277e-07</v>
+      </c>
+      <c r="K41">
+        <v>2.2202241777066131e-14</v>
+      </c>
+      <c r="L41">
+        <v>2.2202241777066131e-14</v>
+      </c>
+      <c r="M41">
+        <v>0.002631943031858569</v>
+      </c>
+      <c r="N41">
+        <v>2.2202241777066131e-14</v>
+      </c>
+      <c r="O41">
+        <v>2.2202241777066131e-14</v>
+      </c>
+      <c r="P41">
+        <v>2.2202241777066131e-14</v>
+      </c>
+      <c r="Q41">
+        <v>8</v>
+      </c>
+      <c r="R41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="B42">
+        <v>2.2200404834014586e-14</v>
+      </c>
+      <c r="C42">
+        <v>0.014721749754683334</v>
+      </c>
+      <c r="D42">
+        <v>2.2200404834014586e-14</v>
+      </c>
+      <c r="E42">
+        <v>2.2200404834014586e-14</v>
+      </c>
+      <c r="F42">
+        <v>6.4860169442995177e-09</v>
+      </c>
+      <c r="G42">
+        <v>2.2200404834014586e-14</v>
+      </c>
+      <c r="H42">
+        <v>2.2200404834014586e-14</v>
+      </c>
+      <c r="I42">
+        <v>0.98475721261575455</v>
+      </c>
+      <c r="J42">
+        <v>9.0248409841020996e-07</v>
+      </c>
+      <c r="K42">
+        <v>2.2200404834014586e-14</v>
+      </c>
+      <c r="L42">
+        <v>2.2200404834014586e-14</v>
+      </c>
+      <c r="M42">
+        <v>0.00052012865922478361</v>
+      </c>
+      <c r="N42">
+        <v>2.2200404834014586e-14</v>
+      </c>
+      <c r="O42">
+        <v>2.2200404834014586e-14</v>
+      </c>
+      <c r="P42">
+        <v>2.2200404834014586e-14</v>
+      </c>
+      <c r="Q42">
+        <v>8</v>
+      </c>
+      <c r="R42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="B43">
+        <v>2.2200781865688622e-14</v>
+      </c>
+      <c r="C43">
+        <v>0.062825455378686126</v>
+      </c>
+      <c r="D43">
+        <v>2.2200781865688622e-14</v>
+      </c>
+      <c r="E43">
+        <v>2.2200781865688622e-14</v>
+      </c>
+      <c r="F43">
+        <v>4.7666209434797303e-10</v>
+      </c>
+      <c r="G43">
+        <v>2.2200781865688622e-14</v>
+      </c>
+      <c r="H43">
+        <v>2.2200781865688622e-14</v>
+      </c>
+      <c r="I43">
+        <v>2.2200781865688622e-14</v>
+      </c>
+      <c r="J43">
+        <v>0.93704793786042617</v>
+      </c>
+      <c r="K43">
+        <v>2.2200781865688622e-14</v>
+      </c>
+      <c r="L43">
+        <v>2.2200781865688622e-14</v>
+      </c>
+      <c r="M43">
+        <v>0.00012660628398157233</v>
+      </c>
+      <c r="N43">
+        <v>2.2200781865688622e-14</v>
+      </c>
+      <c r="O43">
+        <v>2.2200781865688622e-14</v>
+      </c>
+      <c r="P43">
+        <v>2.2200781865688622e-14</v>
+      </c>
+      <c r="Q43">
+        <v>9</v>
+      </c>
+      <c r="R43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="B44">
+        <v>2.2200720402865091e-14</v>
+      </c>
+      <c r="C44">
+        <v>0.013008011967900031</v>
+      </c>
+      <c r="D44">
+        <v>2.2200720402865091e-14</v>
+      </c>
+      <c r="E44">
+        <v>2.2200720402865091e-14</v>
+      </c>
+      <c r="F44">
+        <v>2.3517908870995611e-11</v>
+      </c>
+      <c r="G44">
+        <v>2.2200720402865091e-14</v>
+      </c>
+      <c r="H44">
+        <v>2.2200720402865091e-14</v>
+      </c>
+      <c r="I44">
+        <v>2.2200720402865091e-14</v>
+      </c>
+      <c r="J44">
+        <v>0.9867820063403433</v>
+      </c>
+      <c r="K44">
+        <v>2.2200720402865091e-14</v>
+      </c>
+      <c r="L44">
+        <v>2.2200720402865091e-14</v>
+      </c>
+      <c r="M44">
+        <v>0.00020998166799469429</v>
+      </c>
+      <c r="N44">
+        <v>2.2200720402865091e-14</v>
+      </c>
+      <c r="O44">
+        <v>2.2200720402865091e-14</v>
+      </c>
+      <c r="P44">
+        <v>2.2200720402865091e-14</v>
+      </c>
+      <c r="Q44">
+        <v>9</v>
+      </c>
+      <c r="R44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B45">
+        <v>2.2200778027256973e-14</v>
+      </c>
+      <c r="C45">
+        <v>0.016784481904267113</v>
+      </c>
+      <c r="D45">
+        <v>2.2200778027256973e-14</v>
+      </c>
+      <c r="E45">
+        <v>2.2200778027256973e-14</v>
+      </c>
+      <c r="F45">
+        <v>1.283739847238305e-09</v>
+      </c>
+      <c r="G45">
+        <v>2.2200778027256973e-14</v>
+      </c>
+      <c r="H45">
+        <v>2.2200778027256973e-14</v>
+      </c>
+      <c r="I45">
+        <v>2.2200778027256973e-14</v>
+      </c>
+      <c r="J45">
+        <v>0.98299005164217101</v>
+      </c>
+      <c r="K45">
+        <v>2.2200778027256973e-14</v>
+      </c>
+      <c r="L45">
+        <v>2.2200778027256973e-14</v>
+      </c>
+      <c r="M45">
+        <v>0.00022546516957783414</v>
+      </c>
+      <c r="N45">
+        <v>2.2200778027256973e-14</v>
+      </c>
+      <c r="O45">
+        <v>2.2200778027256973e-14</v>
+      </c>
+      <c r="P45">
+        <v>2.2200778027256973e-14</v>
+      </c>
+      <c r="Q45">
+        <v>9</v>
+      </c>
+      <c r="R45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="B46">
+        <v>2.220309280966929e-14</v>
+      </c>
+      <c r="C46">
+        <v>9.2419506798302621e-05</v>
+      </c>
+      <c r="D46">
+        <v>2.220309280966929e-14</v>
+      </c>
+      <c r="E46">
+        <v>2.220309280966929e-14</v>
+      </c>
+      <c r="F46">
+        <v>1.5441290170474002e-08</v>
+      </c>
+      <c r="G46">
+        <v>2.220309280966929e-14</v>
+      </c>
+      <c r="H46">
+        <v>2.220309280966929e-14</v>
+      </c>
+      <c r="I46">
+        <v>2.220309280966929e-14</v>
+      </c>
+      <c r="J46">
+        <v>2.5812477582857737e-08</v>
+      </c>
+      <c r="K46">
+        <v>0.9990735490422421</v>
+      </c>
+      <c r="L46">
+        <v>2.220309280966929e-14</v>
+      </c>
+      <c r="M46">
+        <v>0.00083399019696985097</v>
+      </c>
+      <c r="N46">
+        <v>2.220309280966929e-14</v>
+      </c>
+      <c r="O46">
+        <v>2.220309280966929e-14</v>
+      </c>
+      <c r="P46">
+        <v>2.220309280966929e-14</v>
+      </c>
+      <c r="Q46">
+        <v>10</v>
+      </c>
+      <c r="R46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="B47">
+        <v>2.2204052817961409e-14</v>
+      </c>
+      <c r="C47">
+        <v>0.0002739382692848944</v>
+      </c>
+      <c r="D47">
+        <v>2.2204052817961409e-14</v>
+      </c>
+      <c r="E47">
+        <v>2.2204052817961409e-14</v>
+      </c>
+      <c r="F47">
+        <v>1.05575546009641e-12</v>
+      </c>
+      <c r="G47">
+        <v>2.2204052817961409e-14</v>
+      </c>
+      <c r="H47">
+        <v>2.2204052817961409e-14</v>
+      </c>
+      <c r="I47">
+        <v>2.2204052817961409e-14</v>
+      </c>
+      <c r="J47">
+        <v>1.7830761306572775e-08</v>
+      </c>
+      <c r="K47">
+        <v>0.99972437594929242</v>
+      </c>
+      <c r="L47">
+        <v>2.2204052817961409e-14</v>
+      </c>
+      <c r="M47">
+        <v>1.6679493834550499e-06</v>
+      </c>
+      <c r="N47">
+        <v>2.2204052817961409e-14</v>
+      </c>
+      <c r="O47">
+        <v>2.2204052817961409e-14</v>
+      </c>
+      <c r="P47">
+        <v>2.2204052817961409e-14</v>
+      </c>
+      <c r="Q47">
+        <v>10</v>
+      </c>
+      <c r="R47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="B48">
+        <v>2.2204274295690453e-14</v>
+      </c>
+      <c r="C48">
+        <v>3.9192106573896952e-05</v>
+      </c>
+      <c r="D48">
+        <v>2.2204274295690453e-14</v>
+      </c>
+      <c r="E48">
+        <v>2.2204274295690453e-14</v>
+      </c>
+      <c r="F48">
+        <v>1.1338616877028974e-11</v>
+      </c>
+      <c r="G48">
+        <v>2.2204274295690453e-14</v>
+      </c>
+      <c r="H48">
+        <v>2.2204274295690453e-14</v>
+      </c>
+      <c r="I48">
+        <v>2.2204274295690453e-14</v>
+      </c>
+      <c r="J48">
+        <v>3.2909333688287092e-09</v>
+      </c>
+      <c r="K48">
+        <v>0.99987417000808709</v>
+      </c>
+      <c r="L48">
+        <v>2.2204274295690453e-14</v>
+      </c>
+      <c r="M48">
+        <v>8.6634582844999312e-05</v>
+      </c>
+      <c r="N48">
+        <v>2.2204274295690453e-14</v>
+      </c>
+      <c r="O48">
+        <v>2.2204274295690453e-14</v>
+      </c>
+      <c r="P48">
+        <v>2.2204274295690453e-14</v>
+      </c>
+      <c r="Q48">
+        <v>10</v>
+      </c>
+      <c r="R48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="B49">
+        <v>2.2204409464904582e-14</v>
+      </c>
+      <c r="C49">
+        <v>4.9069501401592235e-07</v>
+      </c>
+      <c r="D49">
+        <v>2.2204409464904582e-14</v>
+      </c>
+      <c r="E49">
+        <v>2.2204409464904582e-14</v>
+      </c>
+      <c r="F49">
+        <v>4.6405358535967451e-14</v>
+      </c>
+      <c r="G49">
+        <v>2.2204409464904582e-14</v>
+      </c>
+      <c r="H49">
+        <v>2.2204409464904582e-14</v>
+      </c>
+      <c r="I49">
+        <v>2.2204409464904582e-14</v>
+      </c>
+      <c r="J49">
+        <v>1.6517649857502559e-08</v>
+      </c>
+      <c r="K49">
+        <v>0.99996552532069549</v>
+      </c>
+      <c r="L49">
+        <v>2.2204409464904582e-14</v>
+      </c>
+      <c r="M49">
+        <v>3.3967466372127862e-05</v>
+      </c>
+      <c r="N49">
+        <v>2.2204409464904582e-14</v>
+      </c>
+      <c r="O49">
+        <v>2.2204409464904582e-14</v>
+      </c>
+      <c r="P49">
+        <v>2.2204409464904582e-14</v>
+      </c>
+      <c r="Q49">
+        <v>10</v>
+      </c>
+      <c r="R49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="B50">
+        <v>2.2200393379337106e-14</v>
+      </c>
+      <c r="C50">
+        <v>1.4144448998508441e-05</v>
+      </c>
+      <c r="D50">
+        <v>2.2200393379337106e-14</v>
+      </c>
+      <c r="E50">
+        <v>0.041447667655136793</v>
+      </c>
+      <c r="F50">
+        <v>2.5962665898474463e-11</v>
+      </c>
+      <c r="G50">
+        <v>2.2200393379337106e-14</v>
+      </c>
+      <c r="H50">
+        <v>2.2200393379337106e-14</v>
+      </c>
+      <c r="I50">
+        <v>2.2200393379337106e-14</v>
+      </c>
+      <c r="J50">
+        <v>2.2200393379337106e-14</v>
+      </c>
+      <c r="K50">
+        <v>2.2200393379337106e-14</v>
+      </c>
+      <c r="L50">
+        <v>0.95853598108483096</v>
+      </c>
+      <c r="M50">
+        <v>2.2067848491153822e-06</v>
+      </c>
+      <c r="N50">
+        <v>2.2200393379337106e-14</v>
+      </c>
+      <c r="O50">
+        <v>2.2200393379337106e-14</v>
+      </c>
+      <c r="P50">
+        <v>2.2200393379337106e-14</v>
+      </c>
+      <c r="Q50">
+        <v>11</v>
+      </c>
+      <c r="R50">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="B51">
+        <v>2.2203904595183121e-14</v>
+      </c>
+      <c r="C51">
+        <v>0.0001247361848936304</v>
+      </c>
+      <c r="D51">
+        <v>2.2203904595183121e-14</v>
+      </c>
+      <c r="E51">
+        <v>2.2203904595183121e-14</v>
+      </c>
+      <c r="F51">
+        <v>9.9105022986888579e-09</v>
+      </c>
+      <c r="G51">
+        <v>2.2203904595183121e-14</v>
+      </c>
+      <c r="H51">
+        <v>2.2203904595183121e-14</v>
+      </c>
+      <c r="I51">
+        <v>2.2203904595183121e-14</v>
+      </c>
+      <c r="J51">
+        <v>2.2203904595183121e-14</v>
+      </c>
+      <c r="K51">
+        <v>2.2203904595183121e-14</v>
+      </c>
+      <c r="L51">
+        <v>0.99962405308397406</v>
+      </c>
+      <c r="M51">
+        <v>0.00025120082038570759</v>
+      </c>
+      <c r="N51">
+        <v>2.2203904595183121e-14</v>
+      </c>
+      <c r="O51">
+        <v>2.2203904595183121e-14</v>
+      </c>
+      <c r="P51">
+        <v>2.2203904595183121e-14</v>
+      </c>
+      <c r="Q51">
+        <v>11</v>
+      </c>
+      <c r="R51">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="B52">
+        <v>2.220269765152037e-14</v>
+      </c>
+      <c r="C52">
+        <v>0.00053942649260522925</v>
+      </c>
+      <c r="D52">
+        <v>2.220269765152037e-14</v>
+      </c>
+      <c r="E52">
+        <v>2.220269765152037e-14</v>
+      </c>
+      <c r="F52">
+        <v>4.1827085299180499e-08</v>
+      </c>
+      <c r="G52">
+        <v>2.220269765152037e-14</v>
+      </c>
+      <c r="H52">
+        <v>2.220269765152037e-14</v>
+      </c>
+      <c r="I52">
+        <v>2.220269765152037e-14</v>
+      </c>
+      <c r="J52">
+        <v>2.220269765152037e-14</v>
+      </c>
+      <c r="K52">
+        <v>2.220269765152037e-14</v>
+      </c>
+      <c r="L52">
+        <v>0.99880492508248642</v>
+      </c>
+      <c r="M52">
+        <v>0.00065560659757874125</v>
+      </c>
+      <c r="N52">
+        <v>2.220269765152037e-14</v>
+      </c>
+      <c r="O52">
+        <v>2.220269765152037e-14</v>
+      </c>
+      <c r="P52">
+        <v>2.220269765152037e-14</v>
+      </c>
+      <c r="Q52">
+        <v>11</v>
+      </c>
+      <c r="R52">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="B53">
+        <v>2.2202354469789507e-14</v>
+      </c>
+      <c r="C53">
+        <v>0.0012025170267242885</v>
+      </c>
+      <c r="D53">
+        <v>2.2202354469789507e-14</v>
+      </c>
+      <c r="E53">
+        <v>2.2202354469789507e-14</v>
+      </c>
+      <c r="F53">
+        <v>6.110410490173109e-10</v>
+      </c>
+      <c r="G53">
+        <v>2.2202354469789507e-14</v>
+      </c>
+      <c r="H53">
+        <v>2.2202354469789507e-14</v>
+      </c>
+      <c r="I53">
+        <v>2.2202354469789507e-14</v>
+      </c>
+      <c r="J53">
+        <v>2.2202354469789507e-14</v>
+      </c>
+      <c r="K53">
+        <v>2.2202354469789507e-14</v>
+      </c>
+      <c r="L53">
+        <v>0.99857128823484831</v>
+      </c>
+      <c r="M53">
+        <v>0.00022619412714222311</v>
+      </c>
+      <c r="N53">
+        <v>2.2202354469789507e-14</v>
+      </c>
+      <c r="O53">
+        <v>2.2202354469789507e-14</v>
+      </c>
+      <c r="P53">
+        <v>2.2202354469789507e-14</v>
+      </c>
+      <c r="Q53">
+        <v>11</v>
+      </c>
+      <c r="R53">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="B54">
+        <v>2.2200695633880863e-14</v>
+      </c>
+      <c r="C54">
+        <v>1.8487184320586044e-05</v>
+      </c>
+      <c r="D54">
+        <v>2.2200695633880863e-14</v>
+      </c>
+      <c r="E54">
+        <v>2.2200695633880863e-14</v>
+      </c>
+      <c r="F54">
+        <v>5.0956807526686691e-10</v>
+      </c>
+      <c r="G54">
+        <v>2.2200695633880863e-14</v>
+      </c>
+      <c r="H54">
+        <v>2.2200695633880863e-14</v>
+      </c>
+      <c r="I54">
+        <v>2.2200695633880863e-14</v>
+      </c>
+      <c r="J54">
+        <v>2.2200695633880863e-14</v>
+      </c>
+      <c r="K54">
+        <v>2.2200695633880863e-14</v>
+      </c>
+      <c r="L54">
+        <v>0.99743736206118239</v>
+      </c>
+      <c r="M54">
+        <v>0.0025441502446847501</v>
+      </c>
+      <c r="N54">
+        <v>2.2200695633880863e-14</v>
+      </c>
+      <c r="O54">
+        <v>2.2200695633880863e-14</v>
+      </c>
+      <c r="P54">
+        <v>2.2200695633880863e-14</v>
+      </c>
+      <c r="Q54">
+        <v>11</v>
+      </c>
+      <c r="R54">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="B55">
+        <v>2.2202817756767261e-14</v>
+      </c>
+      <c r="C55">
+        <v>0.00072437975948127836</v>
+      </c>
+      <c r="D55">
+        <v>2.2202817756767261e-14</v>
+      </c>
+      <c r="E55">
+        <v>2.2202817756767261e-14</v>
+      </c>
+      <c r="F55">
+        <v>3.475209101509168e-12</v>
+      </c>
+      <c r="G55">
+        <v>2.2202817756767261e-14</v>
+      </c>
+      <c r="H55">
+        <v>2.2202817756767261e-14</v>
+      </c>
+      <c r="I55">
+        <v>2.2202817756767261e-14</v>
+      </c>
+      <c r="J55">
+        <v>2.2202817756767261e-14</v>
+      </c>
+      <c r="K55">
+        <v>2.2202817756767261e-14</v>
+      </c>
+      <c r="L55">
+        <v>0.99888661647284716</v>
+      </c>
+      <c r="M55">
+        <v>0.00038900376395212624</v>
+      </c>
+      <c r="N55">
+        <v>2.2202817756767261e-14</v>
+      </c>
+      <c r="O55">
+        <v>2.2202817756767261e-14</v>
+      </c>
+      <c r="P55">
+        <v>2.2202817756767261e-14</v>
+      </c>
+      <c r="Q55">
+        <v>11</v>
+      </c>
+      <c r="R55">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="B56">
+        <v>1.2059279069825953e-11</v>
+      </c>
+      <c r="C56">
+        <v>0.0070851591201027391</v>
+      </c>
+      <c r="D56">
+        <v>1.205927906982597e-11</v>
+      </c>
+      <c r="E56">
+        <v>1.2059279069825959e-11</v>
+      </c>
+      <c r="F56">
+        <v>0.0054205629529616413</v>
+      </c>
+      <c r="G56">
+        <v>1.2059279069824613e-11</v>
+      </c>
+      <c r="H56">
+        <v>1.2059279069824613e-11</v>
+      </c>
+      <c r="I56">
+        <v>1.2059279069824588e-11</v>
+      </c>
+      <c r="J56">
+        <v>0.017565280617055343</v>
+      </c>
+      <c r="K56">
+        <v>1.2059279069825996e-11</v>
+      </c>
+      <c r="L56">
+        <v>1.2059279069825996e-11</v>
+      </c>
+      <c r="M56">
+        <v>0.96992899717722814</v>
+      </c>
+      <c r="N56">
+        <v>1.2059279069825996e-11</v>
+      </c>
+      <c r="O56">
+        <v>1.2059279069826017e-11</v>
+      </c>
+      <c r="P56">
+        <v>1.2059279069825996e-11</v>
+      </c>
+      <c r="Q56">
+        <v>12</v>
+      </c>
+      <c r="R56">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="B57">
+        <v>6.7690888449132218e-14</v>
+      </c>
+      <c r="C57">
+        <v>1.478402066341591e-06</v>
+      </c>
+      <c r="D57">
+        <v>6.7690888449132382e-14</v>
+      </c>
+      <c r="E57">
+        <v>6.7690888449132483e-14</v>
+      </c>
+      <c r="F57">
+        <v>0.00024399662478734942</v>
+      </c>
+      <c r="G57">
+        <v>6.7690888449132319e-14</v>
+      </c>
+      <c r="H57">
+        <v>6.7690888449132558e-14</v>
+      </c>
+      <c r="I57">
+        <v>6.7690888449132053e-14</v>
+      </c>
+      <c r="J57">
+        <v>0.00058112688183020299</v>
+      </c>
+      <c r="K57">
+        <v>6.7690888449131915e-14</v>
+      </c>
+      <c r="L57">
+        <v>6.7690888449131877e-14</v>
+      </c>
+      <c r="M57">
+        <v>0.9991733980905716</v>
+      </c>
+      <c r="N57">
+        <v>6.7690888449131877e-14</v>
+      </c>
+      <c r="O57">
+        <v>6.769088844913252e-14</v>
+      </c>
+      <c r="P57">
+        <v>6.7690888449132218e-14</v>
+      </c>
+      <c r="Q57">
+        <v>12</v>
+      </c>
+      <c r="R57">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="B58">
+        <v>6.5945943426759276e-14</v>
+      </c>
+      <c r="C58">
+        <v>1.5547299867682533e-05</v>
+      </c>
+      <c r="D58">
+        <v>6.5945943426759579e-14</v>
+      </c>
+      <c r="E58">
+        <v>6.5945943426759314e-14</v>
+      </c>
+      <c r="F58">
+        <v>0.0008389668080669338</v>
+      </c>
+      <c r="G58">
+        <v>6.5945943426759327e-14</v>
+      </c>
+      <c r="H58">
+        <v>6.5945943426759516e-14</v>
+      </c>
+      <c r="I58">
+        <v>6.5945943426759415e-14</v>
+      </c>
+      <c r="J58">
+        <v>0.0019332693741929085</v>
+      </c>
+      <c r="K58">
+        <v>6.5945943426759226e-14</v>
+      </c>
+      <c r="L58">
+        <v>6.5945943426759327e-14</v>
+      </c>
+      <c r="M58">
+        <v>0.99721221651714698</v>
+      </c>
+      <c r="N58">
+        <v>6.5945943426759327e-14</v>
+      </c>
+      <c r="O58">
+        <v>6.5945943426759668e-14</v>
+      </c>
+      <c r="P58">
+        <v>6.5945943426759226e-14</v>
+      </c>
+      <c r="Q58">
+        <v>12</v>
+      </c>
+      <c r="R58">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="B59">
+        <v>2.2234933206557904e-14</v>
+      </c>
+      <c r="C59">
+        <v>1.3755187974255161e-05</v>
+      </c>
+      <c r="D59">
+        <v>2.2234933206557904e-14</v>
+      </c>
+      <c r="E59">
+        <v>2.2234933206557904e-14</v>
+      </c>
+      <c r="F59">
+        <v>0.0037660901826210595</v>
+      </c>
+      <c r="G59">
+        <v>2.2234933206557904e-14</v>
+      </c>
+      <c r="H59">
+        <v>2.2234933206557904e-14</v>
+      </c>
+      <c r="I59">
+        <v>2.2234933206557904e-14</v>
+      </c>
+      <c r="J59">
+        <v>0.0001104141695380748</v>
+      </c>
+      <c r="K59">
+        <v>2.22349332065579e-14</v>
+      </c>
+      <c r="L59">
+        <v>2.22349332065579e-14</v>
+      </c>
+      <c r="M59">
+        <v>0.99610974045962219</v>
+      </c>
+      <c r="N59">
+        <v>2.22349332065579e-14</v>
+      </c>
+      <c r="O59">
+        <v>2.22349332065579e-14</v>
+      </c>
+      <c r="P59">
+        <v>2.22349332065579e-14</v>
+      </c>
+      <c r="Q59">
+        <v>12</v>
+      </c>
+      <c r="R59">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="B60">
+        <v>2.2231121637812577e-14</v>
+      </c>
+      <c r="C60">
+        <v>0.0030399254806873191</v>
+      </c>
+      <c r="D60">
+        <v>2.2231121637812577e-14</v>
+      </c>
+      <c r="E60">
+        <v>2.2231121637812577e-14</v>
+      </c>
+      <c r="F60">
+        <v>0.001021528814090516</v>
+      </c>
+      <c r="G60">
+        <v>2.2231121637812577e-14</v>
+      </c>
+      <c r="H60">
+        <v>2.2231121637812577e-14</v>
+      </c>
+      <c r="I60">
+        <v>2.2231121637812577e-14</v>
+      </c>
+      <c r="J60">
+        <v>5.9619901508683883e-09</v>
+      </c>
+      <c r="K60">
+        <v>2.2231121637812577e-14</v>
+      </c>
+      <c r="L60">
+        <v>2.2231121637812577e-14</v>
+      </c>
+      <c r="M60">
+        <v>0.99593853974298752</v>
+      </c>
+      <c r="N60">
+        <v>2.2231121637812577e-14</v>
+      </c>
+      <c r="O60">
+        <v>2.2231121637812577e-14</v>
+      </c>
+      <c r="P60">
+        <v>2.2231121637812577e-14</v>
+      </c>
+      <c r="Q60">
+        <v>12</v>
+      </c>
+      <c r="R60">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="B61">
+        <v>3.8430275265842276e-14</v>
+      </c>
+      <c r="C61">
+        <v>0.00035045901451800709</v>
+      </c>
+      <c r="D61">
+        <v>3.8430275265842466e-14</v>
+      </c>
+      <c r="E61">
+        <v>3.8430275265842308e-14</v>
+      </c>
+      <c r="F61">
+        <v>0.00039581262672691808</v>
+      </c>
+      <c r="G61">
+        <v>3.8430275265842359e-14</v>
+      </c>
+      <c r="H61">
+        <v>3.8430275265842466e-14</v>
+      </c>
+      <c r="I61">
+        <v>3.8430275265842365e-14</v>
+      </c>
+      <c r="J61">
+        <v>2.2243301745649352e-05</v>
+      </c>
+      <c r="K61">
+        <v>3.8430275265842226e-14</v>
+      </c>
+      <c r="L61">
+        <v>3.8430275265842327e-14</v>
+      </c>
+      <c r="M61">
+        <v>0.99923148505658665</v>
+      </c>
+      <c r="N61">
+        <v>3.8430275265842327e-14</v>
+      </c>
+      <c r="O61">
+        <v>3.8430275265842428e-14</v>
+      </c>
+      <c r="P61">
+        <v>3.8430275265842308e-14</v>
+      </c>
+      <c r="Q61">
+        <v>12</v>
+      </c>
+      <c r="R61">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="B62">
+        <v>2.2200840487284786e-14</v>
+      </c>
+      <c r="C62">
+        <v>0.00012266798672312061</v>
+      </c>
+      <c r="D62">
+        <v>2.2200840487284786e-14</v>
+      </c>
+      <c r="E62">
+        <v>2.2200840487284786e-14</v>
+      </c>
+      <c r="F62">
+        <v>4.0265599021408177e-06</v>
+      </c>
+      <c r="G62">
+        <v>2.2200840487284786e-14</v>
+      </c>
+      <c r="H62">
+        <v>2.2200840487284786e-14</v>
+      </c>
+      <c r="I62">
+        <v>2.2200840487284786e-14</v>
+      </c>
+      <c r="J62">
+        <v>0.0001820364939862497</v>
+      </c>
+      <c r="K62">
+        <v>2.2200840487284786e-14</v>
+      </c>
+      <c r="L62">
+        <v>2.2200840487284786e-14</v>
+      </c>
+      <c r="M62">
+        <v>0.0072272650767202622</v>
+      </c>
+      <c r="N62">
+        <v>0.99246400388244616</v>
+      </c>
+      <c r="O62">
+        <v>2.2200840487284786e-14</v>
+      </c>
+      <c r="P62">
+        <v>2.2200840487284786e-14</v>
+      </c>
+      <c r="Q62">
+        <v>13</v>
+      </c>
+      <c r="R62">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="B63">
+        <v>0.062706149400829247</v>
+      </c>
+      <c r="C63">
+        <v>0.062711321672571832</v>
+      </c>
+      <c r="D63">
+        <v>0.062706149400829289</v>
+      </c>
+      <c r="E63">
+        <v>0.062706149400829247</v>
+      </c>
+      <c r="F63">
+        <v>0.06270670985399239</v>
+      </c>
+      <c r="G63">
+        <v>0.062706149400829261</v>
+      </c>
+      <c r="H63">
+        <v>0.062706149400829261</v>
+      </c>
+      <c r="I63">
+        <v>0.062706149400829261</v>
+      </c>
+      <c r="J63">
+        <v>0.062706960570062684</v>
+      </c>
+      <c r="K63">
+        <v>0.062706149400829261</v>
+      </c>
+      <c r="L63">
+        <v>0.062706149400829261</v>
+      </c>
+      <c r="M63">
+        <v>0.063365135522943969</v>
+      </c>
+      <c r="N63">
+        <v>0.12144837837213669</v>
+      </c>
+      <c r="O63">
+        <v>0.062706149400829261</v>
+      </c>
+      <c r="P63">
+        <v>0.062706149400829261</v>
+      </c>
+      <c r="Q63">
+        <v>13</v>
+      </c>
+      <c r="R63">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="B64">
+        <v>2.2201588146557644e-14</v>
+      </c>
+      <c r="C64">
+        <v>0.010320103037174679</v>
+      </c>
+      <c r="D64">
+        <v>2.2201588146557644e-14</v>
+      </c>
+      <c r="E64">
+        <v>2.2201588146557644e-14</v>
+      </c>
+      <c r="F64">
+        <v>3.7545970481768176e-06</v>
+      </c>
+      <c r="G64">
+        <v>2.2201588146557644e-14</v>
+      </c>
+      <c r="H64">
+        <v>2.2201588146557644e-14</v>
+      </c>
+      <c r="I64">
+        <v>2.2201588146557644e-14</v>
+      </c>
+      <c r="J64">
+        <v>2.3887196382496845e-13</v>
+      </c>
+      <c r="K64">
+        <v>2.2201588146557644e-14</v>
+      </c>
+      <c r="L64">
+        <v>2.2201588146557644e-14</v>
+      </c>
+      <c r="M64">
+        <v>0.0017687121999728969</v>
+      </c>
+      <c r="N64">
+        <v>2.2201588146557644e-14</v>
+      </c>
+      <c r="O64">
+        <v>0.98790743016534333</v>
+      </c>
+      <c r="P64">
+        <v>2.2201588146557644e-14</v>
+      </c>
+      <c r="Q64">
+        <v>14</v>
+      </c>
+      <c r="R64">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="B65">
+        <v>2.2200603898967742e-14</v>
+      </c>
+      <c r="C65">
+        <v>0.0032985510977282593</v>
+      </c>
+      <c r="D65">
+        <v>2.2200603898967742e-14</v>
+      </c>
+      <c r="E65">
+        <v>2.2200603898967742e-14</v>
+      </c>
+      <c r="F65">
+        <v>6.367834248155162e-06</v>
+      </c>
+      <c r="G65">
+        <v>2.2200603898967742e-14</v>
+      </c>
+      <c r="H65">
+        <v>2.2200603898967742e-14</v>
+      </c>
+      <c r="I65">
+        <v>2.2200603898967742e-14</v>
+      </c>
+      <c r="J65">
+        <v>3.4252934322996011e-08</v>
+      </c>
+      <c r="K65">
+        <v>2.2200603898967742e-14</v>
+      </c>
+      <c r="L65">
+        <v>2.2200603898967742e-14</v>
+      </c>
+      <c r="M65">
+        <v>5.1397385815447904e-05</v>
+      </c>
+      <c r="N65">
+        <v>2.2200603898967742e-14</v>
+      </c>
+      <c r="O65">
+        <v>0.99664364942905193</v>
+      </c>
+      <c r="P65">
+        <v>2.2200603898967742e-14</v>
+      </c>
+      <c r="Q65">
+        <v>14</v>
+      </c>
+      <c r="R65">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="B66">
+        <v>2.2200655721042661e-14</v>
+      </c>
+      <c r="C66">
+        <v>0.003795401867173392</v>
+      </c>
+      <c r="D66">
+        <v>2.2200655721042661e-14</v>
+      </c>
+      <c r="E66">
+        <v>2.2200655721042661e-14</v>
+      </c>
+      <c r="F66">
+        <v>3.0874648108529661e-06</v>
+      </c>
+      <c r="G66">
+        <v>2.2200655721042661e-14</v>
+      </c>
+      <c r="H66">
+        <v>2.2200655721042661e-14</v>
+      </c>
+      <c r="I66">
+        <v>2.2200655721042661e-14</v>
+      </c>
+      <c r="J66">
+        <v>3.7681214505916327e-09</v>
+      </c>
+      <c r="K66">
+        <v>2.2200655721042661e-14</v>
+      </c>
+      <c r="L66">
+        <v>2.2200655721042661e-14</v>
+      </c>
+      <c r="M66">
+        <v>0.00012339603820374958</v>
+      </c>
+      <c r="N66">
+        <v>2.2200655721042661e-14</v>
+      </c>
+      <c r="O66">
+        <v>0.99607811086146858</v>
+      </c>
+      <c r="P66">
+        <v>2.2200655721042661e-14</v>
+      </c>
+      <c r="Q66">
+        <v>14</v>
+      </c>
+      <c r="R66">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="B67">
+        <v>2.2202351554990628e-14</v>
+      </c>
+      <c r="C67">
+        <v>0.001201636033612281</v>
+      </c>
+      <c r="D67">
+        <v>2.2202351554990628e-14</v>
+      </c>
+      <c r="E67">
+        <v>2.2202351554990628e-14</v>
+      </c>
+      <c r="F67">
+        <v>2.6440823696524414e-05</v>
+      </c>
+      <c r="G67">
+        <v>2.2202351554990628e-14</v>
+      </c>
+      <c r="H67">
+        <v>2.2202351554990628e-14</v>
+      </c>
+      <c r="I67">
+        <v>2.2202351554990628e-14</v>
+      </c>
+      <c r="J67">
+        <v>7.6083103699827026e-10</v>
+      </c>
+      <c r="K67">
+        <v>2.2202351554990628e-14</v>
+      </c>
+      <c r="L67">
+        <v>2.2202351554990628e-14</v>
+      </c>
+      <c r="M67">
+        <v>0.00020261998000405533</v>
+      </c>
+      <c r="N67">
+        <v>2.2202351554990628e-14</v>
+      </c>
+      <c r="O67">
+        <v>0.998569302401634</v>
+      </c>
+      <c r="P67">
+        <v>2.2202351554990628e-14</v>
+      </c>
+      <c r="Q67">
+        <v>14</v>
+      </c>
+      <c r="R67">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="B68">
+        <v>2.2200710506957653e-14</v>
+      </c>
+      <c r="C68">
+        <v>0.0029493108710156911</v>
+      </c>
+      <c r="D68">
+        <v>2.2200710506957653e-14</v>
+      </c>
+      <c r="E68">
+        <v>2.2200710506957653e-14</v>
+      </c>
+      <c r="F68">
+        <v>4.8860271225459277e-05</v>
+      </c>
+      <c r="G68">
+        <v>2.2200710506957653e-14</v>
+      </c>
+      <c r="H68">
+        <v>2.2200710506957653e-14</v>
+      </c>
+      <c r="I68">
+        <v>2.2200710506957653e-14</v>
+      </c>
+      <c r="J68">
+        <v>1.1147929273080478e-08</v>
+      </c>
+      <c r="K68">
+        <v>2.2200710506957653e-14</v>
+      </c>
+      <c r="L68">
+        <v>2.2200710506957653e-14</v>
+      </c>
+      <c r="M68">
+        <v>0.00032584657357340901</v>
+      </c>
+      <c r="N68">
+        <v>2.2200710506957653e-14</v>
+      </c>
+      <c r="O68">
+        <v>0.99667597113603412</v>
+      </c>
+      <c r="P68">
+        <v>2.2200710506957653e-14</v>
+      </c>
+      <c r="Q68">
+        <v>14</v>
+      </c>
+      <c r="R68">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="B69">
+        <v>2.2201308513181869e-14</v>
+      </c>
+      <c r="C69">
+        <v>0.00081173866352015169</v>
+      </c>
+      <c r="D69">
+        <v>2.2201308513181869e-14</v>
+      </c>
+      <c r="E69">
+        <v>2.2201308513181869e-14</v>
+      </c>
+      <c r="F69">
+        <v>0.0057598421982295901</v>
+      </c>
+      <c r="G69">
+        <v>2.2201308513181869e-14</v>
+      </c>
+      <c r="H69">
+        <v>2.2201308513181869e-14</v>
+      </c>
+      <c r="I69">
+        <v>2.2201308513181869e-14</v>
+      </c>
+      <c r="J69">
+        <v>1.8029203754394315e-10</v>
+      </c>
+      <c r="K69">
+        <v>2.2201308513181869e-14</v>
+      </c>
+      <c r="L69">
+        <v>2.2201308513181869e-14</v>
+      </c>
+      <c r="M69">
+        <v>9.4792432732075619e-05</v>
+      </c>
+      <c r="N69">
+        <v>2.2201308513181869e-14</v>
+      </c>
+      <c r="O69">
+        <v>0.99333362652500423</v>
+      </c>
+      <c r="P69">
+        <v>2.2201308513181869e-14</v>
+      </c>
+      <c r="Q69">
+        <v>14</v>
+      </c>
+      <c r="R69">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="B70">
+        <v>0.062670676837524322</v>
+      </c>
+      <c r="C70">
+        <v>0.062929113404002507</v>
+      </c>
+      <c r="D70">
+        <v>0.062670676837524364</v>
+      </c>
+      <c r="E70">
+        <v>0.062670676837524392</v>
+      </c>
+      <c r="F70">
+        <v>0.067795430613882338</v>
+      </c>
+      <c r="G70">
+        <v>0.062670676837524392</v>
+      </c>
+      <c r="H70">
+        <v>0.062670676837524447</v>
+      </c>
+      <c r="I70">
+        <v>0.062670676837524392</v>
+      </c>
+      <c r="J70">
+        <v>0.062673723497671266</v>
+      </c>
+      <c r="K70">
+        <v>0.062670676837524447</v>
+      </c>
+      <c r="L70">
+        <v>0.062670676837524447</v>
+      </c>
+      <c r="M70">
+        <v>0.065034600796112493</v>
+      </c>
+      <c r="N70">
+        <v>0.062670676837524447</v>
+      </c>
+      <c r="O70">
+        <v>0.062670676837524447</v>
+      </c>
+      <c r="P70">
+        <v>0.11486036331308729</v>
+      </c>
+      <c r="Q70">
+        <v>15</v>
+      </c>
+      <c r="R70">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="B71">
+        <v>2.2198800349196709e-14</v>
+      </c>
+      <c r="C71">
+        <v>0.00010616003222667349</v>
+      </c>
+      <c r="D71">
+        <v>2.2198800349196709e-14</v>
+      </c>
+      <c r="E71">
+        <v>2.2198800349196709e-14</v>
+      </c>
+      <c r="F71">
+        <v>0.027942604978847829</v>
+      </c>
+      <c r="G71">
+        <v>2.2198800349196709e-14</v>
+      </c>
+      <c r="H71">
+        <v>2.2198800349196709e-14</v>
+      </c>
+      <c r="I71">
+        <v>2.2198800349196709e-14</v>
+      </c>
+      <c r="J71">
+        <v>2.6194593712599399e-09</v>
+      </c>
+      <c r="K71">
+        <v>2.2198800349196709e-14</v>
+      </c>
+      <c r="L71">
+        <v>2.2198800349196709e-14</v>
+      </c>
+      <c r="M71">
+        <v>0.00058369428491481261</v>
+      </c>
+      <c r="N71">
+        <v>2.2198800349196709e-14</v>
+      </c>
+      <c r="O71">
+        <v>2.2198800349196709e-14</v>
+      </c>
+      <c r="P71">
+        <v>0.9713675380843293</v>
+      </c>
+      <c r="Q71">
+        <v>15</v>
+      </c>
+      <c r="R71">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="B72">
+        <v>2.2199754773430965e-14</v>
+      </c>
+      <c r="C72">
+        <v>0.00029217499976810259</v>
+      </c>
+      <c r="D72">
+        <v>2.2199754773430965e-14</v>
+      </c>
+      <c r="E72">
+        <v>2.2199754773430965e-14</v>
+      </c>
+      <c r="F72">
+        <v>0.031524117996656435</v>
+      </c>
+      <c r="G72">
+        <v>2.2199754773430965e-14</v>
+      </c>
+      <c r="H72">
+        <v>2.2199754773430965e-14</v>
+      </c>
+      <c r="I72">
+        <v>2.2199754773430965e-14</v>
+      </c>
+      <c r="J72">
+        <v>9.1288496739440906e-10</v>
+      </c>
+      <c r="K72">
+        <v>2.2199754773430965e-14</v>
+      </c>
+      <c r="L72">
+        <v>2.2199754773430965e-14</v>
+      </c>
+      <c r="M72">
+        <v>0.0038626065600960496</v>
+      </c>
+      <c r="N72">
+        <v>2.2199754773430965e-14</v>
+      </c>
+      <c r="O72">
+        <v>2.2199754773430965e-14</v>
+      </c>
+      <c r="P72">
+        <v>0.96432109953037248</v>
+      </c>
+      <c r="Q72">
+        <v>15</v>
+      </c>
+      <c r="R72">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="B73">
+        <v>2.2200775548540014e-14</v>
+      </c>
+      <c r="C73">
+        <v>0.00067156620959117294</v>
+      </c>
+      <c r="D73">
+        <v>2.2200775548540014e-14</v>
+      </c>
+      <c r="E73">
+        <v>2.2200775548540014e-14</v>
+      </c>
+      <c r="F73">
+        <v>0.00025750562239178871</v>
+      </c>
+      <c r="G73">
+        <v>2.2200775548540014e-14</v>
+      </c>
+      <c r="H73">
+        <v>2.2200775548540014e-14</v>
+      </c>
+      <c r="I73">
+        <v>2.2200775548540014e-14</v>
+      </c>
+      <c r="J73">
+        <v>1.0444316821935551e-07</v>
+      </c>
+      <c r="K73">
+        <v>2.2200775548540014e-14</v>
+      </c>
+      <c r="L73">
+        <v>2.2200775548540014e-14</v>
+      </c>
+      <c r="M73">
+        <v>0.0021129001111267125</v>
+      </c>
+      <c r="N73">
+        <v>2.2200775548540014e-14</v>
+      </c>
+      <c r="O73">
+        <v>2.2200775548540014e-14</v>
+      </c>
+      <c r="P73">
+        <v>0.9969579236135</v>
+      </c>
+      <c r="Q73">
+        <v>15</v>
+      </c>
+      <c r="R73">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>